--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_17_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_17_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>299520.786609527</v>
+        <v>290154.7399769661</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24744421.74528888</v>
+        <v>24744421.74528887</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13111573.35339217</v>
+        <v>13111573.35339218</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4207455.43313748</v>
+        <v>4207455.433137481</v>
       </c>
     </row>
     <row r="11">
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1.627477127824789</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,58 +1144,58 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>1.847726076095356</v>
       </c>
-      <c r="G8" t="n">
-        <v>1.627477127824789</v>
-      </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
         <v>1.847726076095356</v>
       </c>
-      <c r="I8" t="n">
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
         <v>1.847726076095356</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1226,55 +1226,55 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
         <v>1.627477127824789</v>
       </c>
-      <c r="H9" t="n">
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>1.847726076095356</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1.847726076095356</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>1.847726076095356</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.847726076095356</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1338,20 +1338,20 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1.847726076095356</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>1.847726076095356</v>
       </c>
       <c r="T10" t="n">
+        <v>1.627477127824789</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
         <v>1.847726076095356</v>
       </c>
-      <c r="U10" t="n">
-        <v>1.627477127824789</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>1.847726076095356</v>
       </c>
     </row>
     <row r="11">
@@ -1375,10 +1375,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>246.8546383131846</v>
       </c>
       <c r="E11" t="n">
-        <v>3.921713898585923</v>
+        <v>150.5624877854874</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>100.213864426283</v>
       </c>
       <c r="T11" t="n">
         <v>213.5078515276671</v>
       </c>
       <c r="U11" t="n">
-        <v>246.8546383131846</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>246.8546383131846</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1448,10 +1448,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D12" t="n">
         <v>115.7281862028015</v>
@@ -1460,13 +1460,13 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>105.1286023732147</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>62.394462647496</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,25 +1499,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>92.20631636151204</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>146.6852880214384</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>195.3252232014799</v>
       </c>
       <c r="V12" t="n">
-        <v>159.8937931904356</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>54.57948945999398</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>172.9620919020575</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>234.3176196495956</v>
+        <v>133.4453523834947</v>
       </c>
       <c r="U13" t="n">
         <v>246.8546383131846</v>
       </c>
       <c r="V13" t="n">
-        <v>246.8546383131846</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>2.425002727790558</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1609,16 +1609,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>246.8546383131846</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>246.8546383131846</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>246.8546383131846</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1663,16 +1663,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>217.429565426253</v>
       </c>
       <c r="V14" t="n">
-        <v>217.4295654262529</v>
+        <v>246.8546383131847</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>246.8546383131847</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>246.8546383131847</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1685,25 +1685,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E15" t="n">
-        <v>29.41005354003254</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F15" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>105.1286023732147</v>
       </c>
       <c r="H15" t="n">
-        <v>62.394462647496</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,25 +1736,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>92.20631636151205</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>154.5577046417164</v>
       </c>
       <c r="U15" t="n">
-        <v>195.3252232014799</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>33.92803641289633</v>
       </c>
       <c r="W15" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="16">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>66.61304914514558</v>
       </c>
       <c r="C16" t="n">
         <v>169.3824387139007</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.9142286143894</v>
       </c>
       <c r="H16" t="n">
-        <v>142.210852813166</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>10.5475565214617</v>
+        <v>95.22456288072435</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>172.9620919020575</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>234.3176196495956</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1855,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>246.8546383131846</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>246.8546383131846</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>246.8546383131846</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>100.213864426283</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>246.8546383131846</v>
+        <v>117.2157009999699</v>
       </c>
       <c r="V17" t="n">
-        <v>217.4295654262529</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>246.8546383131846</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>246.8546383131846</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1922,25 +1922,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C18" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D18" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>68.08471120581724</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F18" t="n">
         <v>107.8702810193205</v>
       </c>
       <c r="G18" t="n">
-        <v>105.1286023732147</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>62.394462647496</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,25 +1973,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>92.20631636151204</v>
       </c>
       <c r="T18" t="n">
-        <v>154.5577046417164</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>209.2659322497963</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="19">
@@ -2007,13 +2007,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>22.73844014135579</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>160.0054738184853</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>142.210852813166</v>
       </c>
       <c r="I19" t="n">
-        <v>95.22456288072436</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>54.57948945999399</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>172.9620919020575</v>
       </c>
       <c r="T19" t="n">
-        <v>234.3176196495956</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>246.8546383131846</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>246.8546383131846</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>117.21570099997</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2095,10 +2095,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>246.8546383131846</v>
+        <v>246.8546383131847</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>246.8546383131847</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>100.213864426283</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>217.4295654262529</v>
+        <v>246.8546383131847</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>246.8546383131846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,25 +2159,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>105.1286023732147</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>50.13172768493702</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,22 +2210,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>92.20631636151205</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>154.5577046417164</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>195.3252232014799</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>174.5627220424961</v>
+        <v>99.82819843667518</v>
       </c>
       <c r="Y21" t="n">
         <v>157.8079400398083</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>102.2422809416604</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>172.9620919020575</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>234.3176196495956</v>
       </c>
       <c r="U22" t="n">
-        <v>246.8546383131846</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>246.8546383131846</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>246.8546383131846</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>44.4674735241955</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2320,22 +2320,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>334.6153450723672</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>66.82379215836733</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,19 +2371,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2478,25 +2478,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>35.99196911681078</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5343322142292</v>
       </c>
       <c r="H25" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>83.80004204681616</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>37.49796586733681</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T25" t="n">
         <v>232.6944259398202</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9132448002744</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>110.7182408605355</v>
       </c>
       <c r="Y25" t="n">
         <v>222.4883416251229</v>
@@ -2557,10 +2557,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2608,13 +2608,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>143.8001314028869</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U26" t="n">
         <v>254.3037726831681</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>274.7347702287458</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2684,10 +2684,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>83.78946074098185</v>
+        <v>83.78946074098128</v>
       </c>
       <c r="T27" t="n">
-        <v>152.7312370348055</v>
+        <v>152.7312370348056</v>
       </c>
       <c r="U27" t="n">
         <v>195.2954114342289</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>141.8185826444857</v>
       </c>
       <c r="G28" t="n">
         <v>164.5343322142292</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>37.49796586733681</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T28" t="n">
-        <v>229.3920360944981</v>
+        <v>232.6944259398202</v>
       </c>
       <c r="U28" t="n">
         <v>279.9132448002744</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>222.4883416251229</v>
@@ -2797,13 +2797,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>402.3145745171349</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.3037726831681</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>253.5041209798381</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>38.36435030298425</v>
       </c>
     </row>
     <row r="30">
@@ -2921,10 +2921,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>83.78946074098185</v>
+        <v>83.78946074098174</v>
       </c>
       <c r="T30" t="n">
-        <v>152.7312370348055</v>
+        <v>152.7312370348056</v>
       </c>
       <c r="U30" t="n">
         <v>195.2954114342289</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>57.84998666292226</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
         <v>164.5343322142292</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>232.6944259398202</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>190.4999628992089</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3031,10 +3031,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3043,10 +3043,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>12.45333819872761</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>283.9738944557603</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.3037726831681</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>358.2904734319586</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
         <v>396.9273063213908</v>
@@ -3125,7 +3125,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H33" t="n">
-        <v>58.01809521504997</v>
+        <v>58.01809521505031</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>83.78946074098185</v>
+        <v>83.78946074098174</v>
       </c>
       <c r="T33" t="n">
         <v>152.7312370348056</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>27.79795193862873</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5343322142292</v>
       </c>
       <c r="H34" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>83.80004204681616</v>
@@ -3240,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>232.6944259398202</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9132448002744</v>
       </c>
       <c r="V34" t="n">
-        <v>6.710352661917536</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>32.76029613099129</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
         <v>406.0233447798626</v>
@@ -3274,13 +3274,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>402.3145745171349</v>
+        <v>324.8378223519645</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3325,13 +3325,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H36" t="n">
-        <v>58.01809521505031</v>
+        <v>58.01809521504998</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>83.78946074098128</v>
+        <v>83.78946074098185</v>
       </c>
       <c r="T36" t="n">
         <v>152.7312370348056</v>
@@ -3432,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>55.8525559877767</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>93.35052185511404</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>37.49796586733681</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>166.3415337283568</v>
@@ -3505,7 +3505,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>348.4393942191502</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3514,10 +3514,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>402.3145745171349</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>79.92043059592238</v>
       </c>
     </row>
     <row r="39">
@@ -3596,10 +3596,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
-        <v>104.6754635109996</v>
+        <v>104.6754635109993</v>
       </c>
       <c r="H39" t="n">
-        <v>58.01809521504954</v>
+        <v>58.01809521505031</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>164.5343322142292</v>
       </c>
       <c r="H40" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>61.12321886880122</v>
+        <v>83.80004204681616</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>37.49796586733681</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>232.6944259398202</v>
       </c>
       <c r="U40" t="n">
         <v>279.9132448002744</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>135.9600249179873</v>
       </c>
       <c r="W40" t="n">
         <v>276.2789678462144</v>
@@ -3729,7 +3729,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -3745,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3754,10 +3754,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>215.8208927368034</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>283.9738944557603</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>209.8004861190321</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>356.4973638741023</v>
       </c>
     </row>
     <row r="42">
@@ -3830,13 +3830,13 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F42" t="n">
-        <v>107.8702810193205</v>
+        <v>107.8702810193201</v>
       </c>
       <c r="G42" t="n">
         <v>104.6754635109996</v>
       </c>
       <c r="H42" t="n">
-        <v>58.01809521504998</v>
+        <v>58.01809521505031</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
@@ -3915,10 +3915,10 @@
         <v>164.5343322142292</v>
       </c>
       <c r="H43" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>83.80004204681616</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>37.49796586733681</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>166.3415337283568</v>
+        <v>73.4202686720807</v>
       </c>
       <c r="T43" t="n">
         <v>232.6944259398202</v>
@@ -3957,10 +3957,10 @@
         <v>279.9132448002744</v>
       </c>
       <c r="V43" t="n">
-        <v>24.99091531637969</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3979,10 +3979,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>80.91481491188679</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.3037726831681</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>358.312540027535</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>273.6872650529507</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -4073,7 +4073,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H45" t="n">
-        <v>58.01809521504997</v>
+        <v>58.01809521505031</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>83.78946074098185</v>
+        <v>83.78946074098197</v>
       </c>
       <c r="T45" t="n">
         <v>152.7312370348056</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>133.2893987403225</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>83.80004204681616</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>37.49796586733681</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>232.6944259398202</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>279.9132448002744</v>
@@ -4197,10 +4197,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>235.72469400849</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.390904304381422</v>
+        <v>3.658124352673633</v>
       </c>
       <c r="C8" t="n">
-        <v>7.390904304381422</v>
+        <v>2.014208061941523</v>
       </c>
       <c r="D8" t="n">
-        <v>7.390904304381422</v>
+        <v>2.014208061941523</v>
       </c>
       <c r="E8" t="n">
-        <v>7.390904304381422</v>
+        <v>2.014208061941523</v>
       </c>
       <c r="F8" t="n">
-        <v>5.524514328527528</v>
+        <v>2.014208061941523</v>
       </c>
       <c r="G8" t="n">
-        <v>3.880598037795417</v>
+        <v>0.1478180860876284</v>
       </c>
       <c r="H8" t="n">
-        <v>2.014208061941523</v>
+        <v>0.1478180860876284</v>
       </c>
       <c r="I8" t="n">
         <v>0.1478180860876284</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1478180860876284</v>
+        <v>1.97706690142203</v>
       </c>
       <c r="K8" t="n">
         <v>1.97706690142203</v>
       </c>
       <c r="L8" t="n">
-        <v>1.97706690142203</v>
+        <v>3.732406673712618</v>
       </c>
       <c r="M8" t="n">
-        <v>3.732406673712618</v>
+        <v>5.56165548904702</v>
       </c>
       <c r="N8" t="n">
-        <v>5.56165548904702</v>
+        <v>7.390904304381422</v>
       </c>
       <c r="O8" t="n">
-        <v>5.56165548904702</v>
+        <v>7.390904304381422</v>
       </c>
       <c r="P8" t="n">
-        <v>5.56165548904702</v>
+        <v>7.390904304381422</v>
       </c>
       <c r="Q8" t="n">
         <v>7.390904304381422</v>
@@ -4837,19 +4837,19 @@
         <v>7.390904304381422</v>
       </c>
       <c r="U8" t="n">
-        <v>7.390904304381422</v>
+        <v>5.524514328527528</v>
       </c>
       <c r="V8" t="n">
-        <v>7.390904304381422</v>
+        <v>5.524514328527528</v>
       </c>
       <c r="W8" t="n">
-        <v>7.390904304381422</v>
+        <v>3.658124352673633</v>
       </c>
       <c r="X8" t="n">
-        <v>7.390904304381422</v>
+        <v>3.658124352673633</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.390904304381422</v>
+        <v>3.658124352673633</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.524514328527528</v>
+        <v>0.1478180860876284</v>
       </c>
       <c r="C9" t="n">
-        <v>5.524514328527528</v>
+        <v>0.1478180860876284</v>
       </c>
       <c r="D9" t="n">
-        <v>5.524514328527528</v>
+        <v>0.1478180860876284</v>
       </c>
       <c r="E9" t="n">
-        <v>5.524514328527528</v>
+        <v>0.1478180860876284</v>
       </c>
       <c r="F9" t="n">
-        <v>5.524514328527528</v>
+        <v>0.1478180860876284</v>
       </c>
       <c r="G9" t="n">
-        <v>3.880598037795417</v>
+        <v>0.1478180860876284</v>
       </c>
       <c r="H9" t="n">
-        <v>2.014208061941523</v>
+        <v>0.1478180860876284</v>
       </c>
       <c r="I9" t="n">
         <v>0.1478180860876284</v>
@@ -4910,25 +4910,25 @@
         <v>7.390904304381422</v>
       </c>
       <c r="S9" t="n">
-        <v>7.390904304381422</v>
+        <v>5.746988013649312</v>
       </c>
       <c r="T9" t="n">
-        <v>7.390904304381422</v>
+        <v>5.746988013649312</v>
       </c>
       <c r="U9" t="n">
-        <v>7.390904304381422</v>
+        <v>3.880598037795417</v>
       </c>
       <c r="V9" t="n">
-        <v>5.524514328527528</v>
+        <v>2.014208061941523</v>
       </c>
       <c r="W9" t="n">
-        <v>5.524514328527528</v>
+        <v>0.1478180860876284</v>
       </c>
       <c r="X9" t="n">
-        <v>5.524514328527528</v>
+        <v>0.1478180860876284</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.524514328527528</v>
+        <v>0.1478180860876284</v>
       </c>
     </row>
     <row r="10">
@@ -4962,49 +4962,49 @@
         <v>0.1478180860876284</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1478180860876284</v>
+        <v>1.97706690142203</v>
       </c>
       <c r="K10" t="n">
-        <v>1.97706690142203</v>
+        <v>3.806315716756433</v>
       </c>
       <c r="L10" t="n">
-        <v>3.806315716756433</v>
+        <v>5.635564532090834</v>
       </c>
       <c r="M10" t="n">
         <v>5.635564532090834</v>
       </c>
       <c r="N10" t="n">
-        <v>7.390904304381422</v>
+        <v>5.635564532090834</v>
       </c>
       <c r="O10" t="n">
-        <v>7.390904304381422</v>
+        <v>5.635564532090834</v>
       </c>
       <c r="P10" t="n">
-        <v>7.390904304381422</v>
+        <v>5.635564532090834</v>
       </c>
       <c r="Q10" t="n">
         <v>7.390904304381422</v>
       </c>
       <c r="R10" t="n">
+        <v>7.390904304381422</v>
+      </c>
+      <c r="S10" t="n">
         <v>5.524514328527528</v>
       </c>
-      <c r="S10" t="n">
-        <v>3.658124352673633</v>
-      </c>
       <c r="T10" t="n">
-        <v>1.791734376819739</v>
+        <v>3.880598037795417</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1478180860876284</v>
+        <v>3.880598037795417</v>
       </c>
       <c r="V10" t="n">
-        <v>0.1478180860876284</v>
+        <v>2.014208061941523</v>
       </c>
       <c r="W10" t="n">
-        <v>0.1478180860876284</v>
+        <v>2.014208061941523</v>
       </c>
       <c r="X10" t="n">
-        <v>0.1478180860876284</v>
+        <v>2.014208061941523</v>
       </c>
       <c r="Y10" t="n">
         <v>0.1478180860876284</v>
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>23.70969823534358</v>
+        <v>421.179811568764</v>
       </c>
       <c r="C11" t="n">
-        <v>23.70969823534358</v>
+        <v>421.179811568764</v>
       </c>
       <c r="D11" t="n">
-        <v>23.70969823534358</v>
+        <v>171.8316920604966</v>
       </c>
       <c r="E11" t="n">
         <v>19.74837106505477</v>
@@ -5041,22 +5041,22 @@
         <v>19.74837106505477</v>
       </c>
       <c r="J11" t="n">
-        <v>71.47410489337324</v>
+        <v>71.47410489337334</v>
       </c>
       <c r="K11" t="n">
-        <v>169.5466712783939</v>
+        <v>169.5466712783941</v>
       </c>
       <c r="L11" t="n">
-        <v>306.1595756010147</v>
+        <v>306.1595756010149</v>
       </c>
       <c r="M11" t="n">
-        <v>470.9938763134062</v>
+        <v>470.9938763134064</v>
       </c>
       <c r="N11" t="n">
-        <v>640.3639607337074</v>
+        <v>640.3639607337076</v>
       </c>
       <c r="O11" t="n">
-        <v>794.8945478764314</v>
+        <v>794.8945478764316</v>
       </c>
       <c r="P11" t="n">
         <v>912.8099234633806</v>
@@ -5065,28 +5065,28 @@
         <v>981.8494974512195</v>
       </c>
       <c r="R11" t="n">
-        <v>987.4185532527384</v>
+        <v>987.4185532527385</v>
       </c>
       <c r="S11" t="n">
-        <v>987.4185532527384</v>
+        <v>886.1924275696243</v>
       </c>
       <c r="T11" t="n">
-        <v>771.7540567601454</v>
+        <v>670.5279310770313</v>
       </c>
       <c r="U11" t="n">
-        <v>522.4059372518782</v>
+        <v>670.5279310770313</v>
       </c>
       <c r="V11" t="n">
-        <v>522.4059372518782</v>
+        <v>670.5279310770313</v>
       </c>
       <c r="W11" t="n">
-        <v>522.4059372518782</v>
+        <v>670.5279310770313</v>
       </c>
       <c r="X11" t="n">
-        <v>273.0578177436109</v>
+        <v>670.5279310770313</v>
       </c>
       <c r="Y11" t="n">
-        <v>273.0578177436109</v>
+        <v>670.5279310770313</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>136.6455288456623</v>
+        <v>548.8156971068493</v>
       </c>
       <c r="C12" t="n">
-        <v>136.6455288456623</v>
+        <v>414.8206258557949</v>
       </c>
       <c r="D12" t="n">
-        <v>19.74837106505477</v>
+        <v>297.9234680751873</v>
       </c>
       <c r="E12" t="n">
-        <v>19.74837106505477</v>
+        <v>297.9234680751873</v>
       </c>
       <c r="F12" t="n">
-        <v>19.74837106505477</v>
+        <v>188.9635882576919</v>
       </c>
       <c r="G12" t="n">
-        <v>19.74837106505477</v>
+        <v>82.77308081000022</v>
       </c>
       <c r="H12" t="n">
         <v>19.74837106505477</v>
       </c>
       <c r="I12" t="n">
-        <v>19.74837106505477</v>
+        <v>26.39509238099932</v>
       </c>
       <c r="J12" t="n">
-        <v>42.93463575886759</v>
+        <v>239.6511865428339</v>
       </c>
       <c r="K12" t="n">
-        <v>114.216359188093</v>
+        <v>310.9329099720593</v>
       </c>
       <c r="L12" t="n">
-        <v>228.8240622175651</v>
+        <v>425.5406130015315</v>
       </c>
       <c r="M12" t="n">
-        <v>370.4053775666041</v>
+        <v>567.1219283505704</v>
       </c>
       <c r="N12" t="n">
-        <v>521.5694302354576</v>
+        <v>718.285981019424</v>
       </c>
       <c r="O12" t="n">
-        <v>650.8559890771743</v>
+        <v>847.5725398611406</v>
       </c>
       <c r="P12" t="n">
-        <v>746.7899588234923</v>
+        <v>943.5065096074587</v>
       </c>
       <c r="Q12" t="n">
-        <v>909.2013170703747</v>
+        <v>987.4185532527385</v>
       </c>
       <c r="R12" t="n">
-        <v>987.4185532527384</v>
+        <v>987.4185532527385</v>
       </c>
       <c r="S12" t="n">
-        <v>987.4185532527384</v>
+        <v>894.2808599582819</v>
       </c>
       <c r="T12" t="n">
-        <v>987.4185532527384</v>
+        <v>746.1139023608694</v>
       </c>
       <c r="U12" t="n">
-        <v>987.4185532527384</v>
+        <v>548.8156971068493</v>
       </c>
       <c r="V12" t="n">
-        <v>825.9096712421974</v>
+        <v>548.8156971068493</v>
       </c>
       <c r="W12" t="n">
-        <v>612.6765029785262</v>
+        <v>548.8156971068493</v>
       </c>
       <c r="X12" t="n">
-        <v>436.350521117419</v>
+        <v>548.8156971068493</v>
       </c>
       <c r="Y12" t="n">
-        <v>276.948561481249</v>
+        <v>548.8156971068493</v>
       </c>
     </row>
     <row r="13">
@@ -5175,7 +5175,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.74837106505477</v>
+        <v>190.8417435033383</v>
       </c>
       <c r="C13" t="n">
         <v>19.74837106505477</v>
@@ -5199,52 +5199,52 @@
         <v>19.74837106505477</v>
       </c>
       <c r="J13" t="n">
-        <v>19.74837106505477</v>
+        <v>80.28237331300291</v>
       </c>
       <c r="K13" t="n">
-        <v>44.35451154466547</v>
+        <v>311.1687073783278</v>
       </c>
       <c r="L13" t="n">
-        <v>87.95374783030101</v>
+        <v>555.5547993083806</v>
       </c>
       <c r="M13" t="n">
-        <v>332.3398397603538</v>
+        <v>602.8436855283165</v>
       </c>
       <c r="N13" t="n">
-        <v>381.6865999537465</v>
+        <v>652.1904457217091</v>
       </c>
       <c r="O13" t="n">
-        <v>626.0726918837993</v>
+        <v>689.5433647532547</v>
       </c>
       <c r="P13" t="n">
-        <v>866.8738933699324</v>
+        <v>866.8738933699325</v>
       </c>
       <c r="Q13" t="n">
-        <v>987.4185532527384</v>
+        <v>987.4185532527385</v>
       </c>
       <c r="R13" t="n">
-        <v>932.2877558184011</v>
+        <v>987.4185532527385</v>
       </c>
       <c r="S13" t="n">
-        <v>757.5785720789492</v>
+        <v>987.4185532527385</v>
       </c>
       <c r="T13" t="n">
-        <v>520.8941077864283</v>
+        <v>852.6252680168853</v>
       </c>
       <c r="U13" t="n">
-        <v>271.545988278161</v>
+        <v>603.277148508618</v>
       </c>
       <c r="V13" t="n">
-        <v>22.19786876989372</v>
+        <v>603.277148508618</v>
       </c>
       <c r="W13" t="n">
-        <v>19.74837106505477</v>
+        <v>603.277148508618</v>
       </c>
       <c r="X13" t="n">
-        <v>19.74837106505477</v>
+        <v>603.277148508618</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.74837106505477</v>
+        <v>378.5414498973827</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>767.7927295898565</v>
+        <v>19.74837106505478</v>
       </c>
       <c r="C14" t="n">
-        <v>518.4446100815893</v>
+        <v>19.74837106505478</v>
       </c>
       <c r="D14" t="n">
-        <v>518.4446100815893</v>
+        <v>19.74837106505478</v>
       </c>
       <c r="E14" t="n">
-        <v>269.0964905733221</v>
+        <v>19.74837106505478</v>
       </c>
       <c r="F14" t="n">
-        <v>19.74837106505477</v>
+        <v>19.74837106505478</v>
       </c>
       <c r="G14" t="n">
-        <v>19.74837106505477</v>
+        <v>19.74837106505478</v>
       </c>
       <c r="H14" t="n">
-        <v>19.74837106505477</v>
+        <v>19.74837106505478</v>
       </c>
       <c r="I14" t="n">
-        <v>19.74837106505477</v>
+        <v>19.74837106505478</v>
       </c>
       <c r="J14" t="n">
-        <v>71.47410489337312</v>
+        <v>71.47410489337334</v>
       </c>
       <c r="K14" t="n">
-        <v>169.5466712783939</v>
+        <v>169.5466712783941</v>
       </c>
       <c r="L14" t="n">
-        <v>306.1595756010148</v>
+        <v>306.1595756010153</v>
       </c>
       <c r="M14" t="n">
-        <v>470.9938763134063</v>
+        <v>470.9938763134068</v>
       </c>
       <c r="N14" t="n">
-        <v>640.3639607337075</v>
+        <v>640.3639607337079</v>
       </c>
       <c r="O14" t="n">
-        <v>794.8945478764314</v>
+        <v>794.8945478764319</v>
       </c>
       <c r="P14" t="n">
-        <v>912.8099234633804</v>
+        <v>912.8099234633809</v>
       </c>
       <c r="Q14" t="n">
-        <v>981.8494974512192</v>
+        <v>981.8494974512197</v>
       </c>
       <c r="R14" t="n">
-        <v>987.4185532527383</v>
+        <v>987.4185532527388</v>
       </c>
       <c r="S14" t="n">
-        <v>987.4185532527383</v>
+        <v>987.4185532527388</v>
       </c>
       <c r="T14" t="n">
-        <v>987.4185532527383</v>
+        <v>987.4185532527388</v>
       </c>
       <c r="U14" t="n">
-        <v>987.4185532527383</v>
+        <v>767.7927295898569</v>
       </c>
       <c r="V14" t="n">
-        <v>767.7927295898565</v>
+        <v>518.4446100815895</v>
       </c>
       <c r="W14" t="n">
-        <v>767.7927295898565</v>
+        <v>269.0964905733222</v>
       </c>
       <c r="X14" t="n">
-        <v>767.7927295898565</v>
+        <v>19.74837106505478</v>
       </c>
       <c r="Y14" t="n">
-        <v>767.7927295898565</v>
+        <v>19.74837106505478</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>327.630592863099</v>
+        <v>497.3239235520803</v>
       </c>
       <c r="C15" t="n">
-        <v>327.630592863099</v>
+        <v>363.328852301026</v>
       </c>
       <c r="D15" t="n">
-        <v>327.630592863099</v>
+        <v>246.4316945204184</v>
       </c>
       <c r="E15" t="n">
-        <v>297.9234680751873</v>
+        <v>125.9388785127464</v>
       </c>
       <c r="F15" t="n">
-        <v>188.9635882576919</v>
+        <v>125.9388785127464</v>
       </c>
       <c r="G15" t="n">
-        <v>82.77308081000022</v>
+        <v>19.74837106505478</v>
       </c>
       <c r="H15" t="n">
-        <v>19.74837106505477</v>
+        <v>19.74837106505478</v>
       </c>
       <c r="I15" t="n">
-        <v>26.3950923809993</v>
+        <v>26.39509238099932</v>
       </c>
       <c r="J15" t="n">
-        <v>161.4339503604699</v>
+        <v>161.4339503604704</v>
       </c>
       <c r="K15" t="n">
-        <v>232.7156737896954</v>
+        <v>232.7156737896958</v>
       </c>
       <c r="L15" t="n">
-        <v>347.3233768191675</v>
+        <v>347.3233768191679</v>
       </c>
       <c r="M15" t="n">
-        <v>488.9046921682065</v>
+        <v>488.9046921682069</v>
       </c>
       <c r="N15" t="n">
-        <v>640.06874483706</v>
+        <v>640.0687448370604</v>
       </c>
       <c r="O15" t="n">
-        <v>769.3553036787766</v>
+        <v>769.3553036787771</v>
       </c>
       <c r="P15" t="n">
-        <v>865.2892734250947</v>
+        <v>865.2892734250952</v>
       </c>
       <c r="Q15" t="n">
-        <v>909.2013170703746</v>
+        <v>909.201317070375</v>
       </c>
       <c r="R15" t="n">
-        <v>987.4185532527383</v>
+        <v>987.4185532527388</v>
       </c>
       <c r="S15" t="n">
-        <v>894.2808599582817</v>
+        <v>987.4185532527388</v>
       </c>
       <c r="T15" t="n">
-        <v>738.1619663807903</v>
+        <v>831.2996596752474</v>
       </c>
       <c r="U15" t="n">
-        <v>540.8637611267702</v>
+        <v>831.2996596752474</v>
       </c>
       <c r="V15" t="n">
-        <v>540.8637611267702</v>
+        <v>797.028915823837</v>
       </c>
       <c r="W15" t="n">
-        <v>327.630592863099</v>
+        <v>797.028915823837</v>
       </c>
       <c r="X15" t="n">
-        <v>327.630592863099</v>
+        <v>797.028915823837</v>
       </c>
       <c r="Y15" t="n">
-        <v>327.630592863099</v>
+        <v>637.626956187667</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>345.1431670736692</v>
+        <v>453.6081995590088</v>
       </c>
       <c r="C16" t="n">
-        <v>174.0497946353858</v>
+        <v>282.5148271207253</v>
       </c>
       <c r="D16" t="n">
-        <v>174.0497946353858</v>
+        <v>282.5148271207253</v>
       </c>
       <c r="E16" t="n">
-        <v>174.0497946353858</v>
+        <v>282.5148271207253</v>
       </c>
       <c r="F16" t="n">
-        <v>174.0497946353858</v>
+        <v>282.5148271207253</v>
       </c>
       <c r="G16" t="n">
-        <v>174.0497946353858</v>
+        <v>115.9347982173016</v>
       </c>
       <c r="H16" t="n">
-        <v>30.40246856148073</v>
+        <v>115.9347982173016</v>
       </c>
       <c r="I16" t="n">
-        <v>19.74837106505477</v>
+        <v>19.74837106505478</v>
       </c>
       <c r="J16" t="n">
-        <v>19.74837106505477</v>
+        <v>19.74837106505478</v>
       </c>
       <c r="K16" t="n">
-        <v>44.35451154466547</v>
+        <v>250.6347051303796</v>
       </c>
       <c r="L16" t="n">
-        <v>87.95374783030101</v>
+        <v>495.0207970604325</v>
       </c>
       <c r="M16" t="n">
-        <v>332.3398397603538</v>
+        <v>542.3096832803685</v>
       </c>
       <c r="N16" t="n">
-        <v>576.7259316904065</v>
+        <v>591.6564434737611</v>
       </c>
       <c r="O16" t="n">
-        <v>622.4878014398795</v>
+        <v>743.0324613226859</v>
       </c>
       <c r="P16" t="n">
-        <v>866.8738933699323</v>
+        <v>987.4185532527388</v>
       </c>
       <c r="Q16" t="n">
-        <v>987.4185532527383</v>
+        <v>987.4185532527388</v>
       </c>
       <c r="R16" t="n">
-        <v>932.2877558184009</v>
+        <v>932.2877558184014</v>
       </c>
       <c r="S16" t="n">
-        <v>757.5785720789489</v>
+        <v>757.5785720789494</v>
       </c>
       <c r="T16" t="n">
-        <v>757.5785720789489</v>
+        <v>520.8941077864285</v>
       </c>
       <c r="U16" t="n">
-        <v>757.5785720789489</v>
+        <v>520.8941077864285</v>
       </c>
       <c r="V16" t="n">
-        <v>757.5785720789489</v>
+        <v>520.8941077864285</v>
       </c>
       <c r="W16" t="n">
-        <v>757.5785720789489</v>
+        <v>520.8941077864285</v>
       </c>
       <c r="X16" t="n">
-        <v>757.5785720789489</v>
+        <v>520.8941077864285</v>
       </c>
       <c r="Y16" t="n">
-        <v>532.8428734677136</v>
+        <v>520.8941077864285</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.74837106505477</v>
+        <v>767.7927295898568</v>
       </c>
       <c r="C17" t="n">
-        <v>19.74837106505477</v>
+        <v>767.7927295898568</v>
       </c>
       <c r="D17" t="n">
-        <v>19.74837106505477</v>
+        <v>767.7927295898568</v>
       </c>
       <c r="E17" t="n">
-        <v>19.74837106505477</v>
+        <v>767.7927295898568</v>
       </c>
       <c r="F17" t="n">
-        <v>19.74837106505477</v>
+        <v>518.4446100815894</v>
       </c>
       <c r="G17" t="n">
-        <v>19.74837106505477</v>
+        <v>269.0964905733221</v>
       </c>
       <c r="H17" t="n">
         <v>19.74837106505477</v>
@@ -5515,52 +5515,52 @@
         <v>19.74837106505477</v>
       </c>
       <c r="J17" t="n">
-        <v>71.47410489337325</v>
+        <v>71.47410489337334</v>
       </c>
       <c r="K17" t="n">
-        <v>169.546671278394</v>
+        <v>169.5466712783941</v>
       </c>
       <c r="L17" t="n">
-        <v>306.1595756010147</v>
+        <v>306.1595756010151</v>
       </c>
       <c r="M17" t="n">
-        <v>470.9938763134062</v>
+        <v>470.9938763134064</v>
       </c>
       <c r="N17" t="n">
-        <v>640.3639607337074</v>
+        <v>640.3639607337076</v>
       </c>
       <c r="O17" t="n">
-        <v>794.8945478764313</v>
+        <v>794.8945478764315</v>
       </c>
       <c r="P17" t="n">
         <v>912.8099234633805</v>
       </c>
       <c r="Q17" t="n">
-        <v>981.8494974512192</v>
+        <v>981.8494974512195</v>
       </c>
       <c r="R17" t="n">
-        <v>987.4185532527383</v>
+        <v>987.4185532527385</v>
       </c>
       <c r="S17" t="n">
-        <v>987.4185532527383</v>
+        <v>886.1924275696243</v>
       </c>
       <c r="T17" t="n">
-        <v>987.4185532527383</v>
+        <v>886.1924275696243</v>
       </c>
       <c r="U17" t="n">
-        <v>738.0704337444711</v>
+        <v>767.7927295898568</v>
       </c>
       <c r="V17" t="n">
-        <v>518.4446100815893</v>
+        <v>767.7927295898568</v>
       </c>
       <c r="W17" t="n">
-        <v>269.0964905733221</v>
+        <v>767.7927295898568</v>
       </c>
       <c r="X17" t="n">
-        <v>19.74837106505477</v>
+        <v>767.7927295898568</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.74837106505477</v>
+        <v>767.7927295898568</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>617.5881326682808</v>
+        <v>383.1961381412765</v>
       </c>
       <c r="C18" t="n">
-        <v>483.5930614172265</v>
+        <v>249.2010668902222</v>
       </c>
       <c r="D18" t="n">
-        <v>366.6959036366189</v>
+        <v>249.2010668902222</v>
       </c>
       <c r="E18" t="n">
-        <v>297.9234680751873</v>
+        <v>128.7082508825502</v>
       </c>
       <c r="F18" t="n">
-        <v>188.9635882576919</v>
+        <v>19.74837106505477</v>
       </c>
       <c r="G18" t="n">
-        <v>82.77308081000022</v>
+        <v>19.74837106505477</v>
       </c>
       <c r="H18" t="n">
         <v>19.74837106505477</v>
       </c>
       <c r="I18" t="n">
-        <v>26.3950923809993</v>
+        <v>19.74837106505477</v>
       </c>
       <c r="J18" t="n">
-        <v>49.5813570748121</v>
+        <v>42.9346357588676</v>
       </c>
       <c r="K18" t="n">
-        <v>120.8630805040375</v>
+        <v>114.216359188093</v>
       </c>
       <c r="L18" t="n">
-        <v>235.4707835335096</v>
+        <v>228.8240622175652</v>
       </c>
       <c r="M18" t="n">
-        <v>377.0520988825485</v>
+        <v>370.4053775666042</v>
       </c>
       <c r="N18" t="n">
-        <v>528.2161515514019</v>
+        <v>521.5694302354577</v>
       </c>
       <c r="O18" t="n">
-        <v>657.5027103931186</v>
+        <v>650.8559890771744</v>
       </c>
       <c r="P18" t="n">
-        <v>753.4366801394366</v>
+        <v>746.7899588234925</v>
       </c>
       <c r="Q18" t="n">
-        <v>987.4185532527383</v>
+        <v>987.4185532527385</v>
       </c>
       <c r="R18" t="n">
-        <v>987.4185532527383</v>
+        <v>987.4185532527385</v>
       </c>
       <c r="S18" t="n">
-        <v>987.4185532527383</v>
+        <v>894.2808599582819</v>
       </c>
       <c r="T18" t="n">
-        <v>831.299659675247</v>
+        <v>894.2808599582819</v>
       </c>
       <c r="U18" t="n">
-        <v>831.299659675247</v>
+        <v>894.2808599582819</v>
       </c>
       <c r="V18" t="n">
-        <v>617.5881326682808</v>
+        <v>894.2808599582819</v>
       </c>
       <c r="W18" t="n">
-        <v>617.5881326682808</v>
+        <v>682.9011304130331</v>
       </c>
       <c r="X18" t="n">
-        <v>617.5881326682808</v>
+        <v>682.9011304130331</v>
       </c>
       <c r="Y18" t="n">
-        <v>617.5881326682808</v>
+        <v>523.4991707768631</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>282.5502456461115</v>
+        <v>325.0173878647026</v>
       </c>
       <c r="C19" t="n">
-        <v>282.5502456461115</v>
+        <v>325.0173878647026</v>
       </c>
       <c r="D19" t="n">
-        <v>259.5821242912066</v>
+        <v>325.0173878647026</v>
       </c>
       <c r="E19" t="n">
-        <v>259.5821242912066</v>
+        <v>325.0173878647026</v>
       </c>
       <c r="F19" t="n">
-        <v>259.5821242912066</v>
+        <v>163.3956971389598</v>
       </c>
       <c r="G19" t="n">
-        <v>259.5821242912066</v>
+        <v>163.3956971389598</v>
       </c>
       <c r="H19" t="n">
-        <v>115.9347982173016</v>
+        <v>19.74837106505477</v>
       </c>
       <c r="I19" t="n">
         <v>19.74837106505477</v>
@@ -5676,49 +5676,49 @@
         <v>19.74837106505477</v>
       </c>
       <c r="K19" t="n">
-        <v>44.35451154466546</v>
+        <v>44.35451154466548</v>
       </c>
       <c r="L19" t="n">
-        <v>216.9073584310346</v>
+        <v>230.0185006243937</v>
       </c>
       <c r="M19" t="n">
-        <v>461.2934503610874</v>
+        <v>474.4045925544465</v>
       </c>
       <c r="N19" t="n">
-        <v>705.6795422911401</v>
+        <v>718.7906844844993</v>
       </c>
       <c r="O19" t="n">
-        <v>743.0324613226855</v>
+        <v>963.176776414552</v>
       </c>
       <c r="P19" t="n">
-        <v>987.4185532527383</v>
+        <v>987.4185532527385</v>
       </c>
       <c r="Q19" t="n">
-        <v>987.4185532527383</v>
+        <v>987.4185532527385</v>
       </c>
       <c r="R19" t="n">
-        <v>932.2877558184009</v>
+        <v>987.4185532527385</v>
       </c>
       <c r="S19" t="n">
-        <v>757.5785720789489</v>
+        <v>812.7093695132866</v>
       </c>
       <c r="T19" t="n">
-        <v>520.8941077864281</v>
+        <v>812.7093695132866</v>
       </c>
       <c r="U19" t="n">
-        <v>520.8941077864281</v>
+        <v>563.3612500050192</v>
       </c>
       <c r="V19" t="n">
-        <v>520.8941077864281</v>
+        <v>563.3612500050192</v>
       </c>
       <c r="W19" t="n">
-        <v>520.8941077864281</v>
+        <v>563.3612500050192</v>
       </c>
       <c r="X19" t="n">
-        <v>282.5502456461115</v>
+        <v>325.0173878647026</v>
       </c>
       <c r="Y19" t="n">
-        <v>282.5502456461115</v>
+        <v>325.0173878647026</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>269.0964905733221</v>
+        <v>636.8443080613572</v>
       </c>
       <c r="C20" t="n">
-        <v>269.0964905733221</v>
+        <v>636.8443080613572</v>
       </c>
       <c r="D20" t="n">
-        <v>269.0964905733221</v>
+        <v>518.4446100815895</v>
       </c>
       <c r="E20" t="n">
-        <v>269.0964905733221</v>
+        <v>518.4446100815895</v>
       </c>
       <c r="F20" t="n">
-        <v>269.0964905733221</v>
+        <v>518.4446100815895</v>
       </c>
       <c r="G20" t="n">
-        <v>19.74837106505477</v>
+        <v>269.0964905733222</v>
       </c>
       <c r="H20" t="n">
-        <v>19.74837106505477</v>
+        <v>19.74837106505478</v>
       </c>
       <c r="I20" t="n">
-        <v>19.74837106505477</v>
+        <v>19.74837106505478</v>
       </c>
       <c r="J20" t="n">
-        <v>71.47410489337328</v>
+        <v>71.47410489337324</v>
       </c>
       <c r="K20" t="n">
-        <v>169.5466712783941</v>
+        <v>169.546671278394</v>
       </c>
       <c r="L20" t="n">
-        <v>306.1595756010148</v>
+        <v>306.1595756010149</v>
       </c>
       <c r="M20" t="n">
-        <v>470.9938763134063</v>
+        <v>470.9938763134064</v>
       </c>
       <c r="N20" t="n">
-        <v>640.3639607337074</v>
+        <v>640.3639607337076</v>
       </c>
       <c r="O20" t="n">
-        <v>794.8945478764313</v>
+        <v>794.8945478764316</v>
       </c>
       <c r="P20" t="n">
-        <v>912.8099234633803</v>
+        <v>912.8099234633806</v>
       </c>
       <c r="Q20" t="n">
-        <v>981.8494974512192</v>
+        <v>981.8494974512197</v>
       </c>
       <c r="R20" t="n">
-        <v>987.4185532527383</v>
+        <v>987.4185532527388</v>
       </c>
       <c r="S20" t="n">
-        <v>987.4185532527383</v>
+        <v>886.1924275696246</v>
       </c>
       <c r="T20" t="n">
-        <v>987.4185532527383</v>
+        <v>886.1924275696246</v>
       </c>
       <c r="U20" t="n">
-        <v>987.4185532527383</v>
+        <v>886.1924275696246</v>
       </c>
       <c r="V20" t="n">
-        <v>987.4185532527383</v>
+        <v>886.1924275696246</v>
       </c>
       <c r="W20" t="n">
-        <v>767.7927295898565</v>
+        <v>636.8443080613572</v>
       </c>
       <c r="X20" t="n">
-        <v>767.7927295898565</v>
+        <v>636.8443080613572</v>
       </c>
       <c r="Y20" t="n">
-        <v>518.4446100815893</v>
+        <v>636.8443080613572</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>402.4340248835131</v>
+        <v>19.74837106505478</v>
       </c>
       <c r="C21" t="n">
-        <v>402.4340248835131</v>
+        <v>19.74837106505478</v>
       </c>
       <c r="D21" t="n">
-        <v>285.5368671029055</v>
+        <v>19.74837106505478</v>
       </c>
       <c r="E21" t="n">
-        <v>285.5368671029055</v>
+        <v>19.74837106505478</v>
       </c>
       <c r="F21" t="n">
-        <v>176.5769872854101</v>
+        <v>19.74837106505478</v>
       </c>
       <c r="G21" t="n">
-        <v>70.38647983771843</v>
+        <v>19.74837106505478</v>
       </c>
       <c r="H21" t="n">
-        <v>19.74837106505477</v>
+        <v>19.74837106505478</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3950923809993</v>
+        <v>26.39509238099932</v>
       </c>
       <c r="J21" t="n">
-        <v>161.4339503604699</v>
+        <v>239.6511865428341</v>
       </c>
       <c r="K21" t="n">
-        <v>232.7156737896954</v>
+        <v>310.9329099720595</v>
       </c>
       <c r="L21" t="n">
-        <v>347.3233768191675</v>
+        <v>425.5406130015317</v>
       </c>
       <c r="M21" t="n">
-        <v>488.9046921682065</v>
+        <v>567.1219283505707</v>
       </c>
       <c r="N21" t="n">
-        <v>640.06874483706</v>
+        <v>718.2859810194242</v>
       </c>
       <c r="O21" t="n">
-        <v>769.3553036787766</v>
+        <v>847.5725398611409</v>
       </c>
       <c r="P21" t="n">
-        <v>865.2892734250947</v>
+        <v>943.506509607459</v>
       </c>
       <c r="Q21" t="n">
-        <v>909.2013170703746</v>
+        <v>987.4185532527388</v>
       </c>
       <c r="R21" t="n">
-        <v>987.4185532527383</v>
+        <v>987.4185532527388</v>
       </c>
       <c r="S21" t="n">
-        <v>894.2808599582817</v>
+        <v>987.4185532527388</v>
       </c>
       <c r="T21" t="n">
-        <v>738.1619663807903</v>
+        <v>831.2996596752474</v>
       </c>
       <c r="U21" t="n">
-        <v>738.1619663807903</v>
+        <v>634.0014544212273</v>
       </c>
       <c r="V21" t="n">
-        <v>738.1619663807903</v>
+        <v>420.2899274142611</v>
       </c>
       <c r="W21" t="n">
-        <v>738.1619663807903</v>
+        <v>420.2899274142611</v>
       </c>
       <c r="X21" t="n">
-        <v>561.8359845196831</v>
+        <v>319.4533633368114</v>
       </c>
       <c r="Y21" t="n">
-        <v>402.4340248835131</v>
+        <v>160.0514037006414</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.74837106505477</v>
+        <v>287.654528208666</v>
       </c>
       <c r="C22" t="n">
-        <v>19.74837106505477</v>
+        <v>287.654528208666</v>
       </c>
       <c r="D22" t="n">
-        <v>19.74837106505477</v>
+        <v>287.654528208666</v>
       </c>
       <c r="E22" t="n">
-        <v>19.74837106505477</v>
+        <v>287.654528208666</v>
       </c>
       <c r="F22" t="n">
-        <v>19.74837106505477</v>
+        <v>123.0234023192572</v>
       </c>
       <c r="G22" t="n">
-        <v>19.74837106505477</v>
+        <v>19.74837106505478</v>
       </c>
       <c r="H22" t="n">
-        <v>19.74837106505477</v>
+        <v>19.74837106505478</v>
       </c>
       <c r="I22" t="n">
-        <v>19.74837106505477</v>
+        <v>19.74837106505478</v>
       </c>
       <c r="J22" t="n">
-        <v>19.74837106505477</v>
+        <v>19.74837106505478</v>
       </c>
       <c r="K22" t="n">
-        <v>44.35451154466547</v>
+        <v>44.35451154466548</v>
       </c>
       <c r="L22" t="n">
-        <v>288.7406034747182</v>
+        <v>230.0185006243936</v>
       </c>
       <c r="M22" t="n">
-        <v>353.8599326716402</v>
+        <v>474.4045925544465</v>
       </c>
       <c r="N22" t="n">
-        <v>598.246024601693</v>
+        <v>718.7906844844994</v>
       </c>
       <c r="O22" t="n">
-        <v>842.6321165317457</v>
+        <v>963.1767764145523</v>
       </c>
       <c r="P22" t="n">
-        <v>866.8738933699323</v>
+        <v>987.4185532527388</v>
       </c>
       <c r="Q22" t="n">
-        <v>987.4185532527383</v>
+        <v>987.4185532527388</v>
       </c>
       <c r="R22" t="n">
-        <v>987.4185532527383</v>
+        <v>987.4185532527388</v>
       </c>
       <c r="S22" t="n">
-        <v>812.7093695132863</v>
+        <v>987.4185532527388</v>
       </c>
       <c r="T22" t="n">
-        <v>812.7093695132863</v>
+        <v>750.7340889602179</v>
       </c>
       <c r="U22" t="n">
-        <v>563.3612500050191</v>
+        <v>750.7340889602179</v>
       </c>
       <c r="V22" t="n">
-        <v>314.0131304967518</v>
+        <v>750.7340889602179</v>
       </c>
       <c r="W22" t="n">
-        <v>64.66501098848457</v>
+        <v>750.7340889602179</v>
       </c>
       <c r="X22" t="n">
-        <v>19.74837106505477</v>
+        <v>512.3902268199013</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.74837106505477</v>
+        <v>287.654528208666</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.100667638947</v>
+        <v>394.8275345360967</v>
       </c>
       <c r="C23" t="n">
-        <v>1203.976076952217</v>
+        <v>394.8275345360967</v>
       </c>
       <c r="D23" t="n">
-        <v>799.5121470452773</v>
+        <v>394.8275345360967</v>
       </c>
       <c r="E23" t="n">
-        <v>461.5168489923811</v>
+        <v>394.8275345360967</v>
       </c>
       <c r="F23" t="n">
-        <v>40.48643694606872</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="G23" t="n">
-        <v>40.48643694606872</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="H23" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I23" t="n">
         <v>44.64574590746554</v>
@@ -5998,19 +5998,19 @@
         <v>641.1850750879075</v>
       </c>
       <c r="M23" t="n">
-        <v>953.2429319501309</v>
+        <v>953.2429319501306</v>
       </c>
       <c r="N23" t="n">
         <v>1272.218803576257</v>
       </c>
       <c r="O23" t="n">
-        <v>1568.017893256778</v>
+        <v>1568.017893256777</v>
       </c>
       <c r="P23" t="n">
         <v>1806.502667397418</v>
       </c>
       <c r="Q23" t="n">
-        <v>1966.084838463273</v>
+        <v>1966.084838463272</v>
       </c>
       <c r="R23" t="n">
         <v>2024.321847303436</v>
@@ -6019,22 +6019,22 @@
         <v>2024.321847303436</v>
       </c>
       <c r="T23" t="n">
-        <v>2024.321847303436</v>
+        <v>1812.402164354919</v>
       </c>
       <c r="U23" t="n">
-        <v>2024.321847303436</v>
+        <v>1555.529666695153</v>
       </c>
       <c r="V23" t="n">
-        <v>2024.321847303436</v>
+        <v>1205.692112031634</v>
       </c>
       <c r="W23" t="n">
-        <v>2024.321847303436</v>
+        <v>1205.692112031634</v>
       </c>
       <c r="X23" t="n">
-        <v>2024.321847303436</v>
+        <v>805.0487142005861</v>
       </c>
       <c r="Y23" t="n">
-        <v>2024.321847303436</v>
+        <v>805.0487142005861</v>
       </c>
     </row>
     <row r="24">
@@ -6047,7 +6047,7 @@
         <v>685.1682898090093</v>
       </c>
       <c r="C24" t="n">
-        <v>551.1732185579549</v>
+        <v>551.173218557955</v>
       </c>
       <c r="D24" t="n">
         <v>434.2760607773473</v>
@@ -6062,10 +6062,10 @@
         <v>99.09057352692761</v>
       </c>
       <c r="H24" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I24" t="n">
-        <v>62.57863487475245</v>
+        <v>62.57863487475244</v>
       </c>
       <c r="J24" t="n">
         <v>128.1484679399047</v>
@@ -6077,16 +6077,16 @@
         <v>483.8830449928535</v>
       </c>
       <c r="M24" t="n">
-        <v>984.9027022004539</v>
+        <v>739.1312627518215</v>
       </c>
       <c r="N24" t="n">
-        <v>1485.922359408054</v>
+        <v>1006.970642510971</v>
       </c>
       <c r="O24" t="n">
-        <v>1721.944048162034</v>
+        <v>1242.99233126495</v>
       </c>
       <c r="P24" t="n">
-        <v>1903.542369598217</v>
+        <v>1744.01198847255</v>
       </c>
       <c r="Q24" t="n">
         <v>2006.22131270252</v>
@@ -6098,7 +6098,7 @@
         <v>1939.686028373151</v>
       </c>
       <c r="T24" t="n">
-        <v>1785.412051570317</v>
+        <v>1785.412051570318</v>
       </c>
       <c r="U24" t="n">
         <v>1588.14395921251</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>547.6655627202189</v>
+        <v>776.3658249281323</v>
       </c>
       <c r="C25" t="n">
-        <v>376.5721902819354</v>
+        <v>776.3658249281323</v>
       </c>
       <c r="D25" t="n">
-        <v>217.0775456048454</v>
+        <v>616.8711802510422</v>
       </c>
       <c r="E25" t="n">
-        <v>180.7220212444305</v>
+        <v>455.9603651193617</v>
       </c>
       <c r="F25" t="n">
-        <v>180.7220212444305</v>
+        <v>291.3292392299529</v>
       </c>
       <c r="G25" t="n">
-        <v>180.7220212444305</v>
+        <v>125.1329440640648</v>
       </c>
       <c r="H25" t="n">
-        <v>40.48643694606872</v>
+        <v>125.1329440640648</v>
       </c>
       <c r="I25" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="J25" t="n">
         <v>127.6105279304289</v>
@@ -6156,13 +6156,13 @@
         <v>815.6863250168145</v>
       </c>
       <c r="M25" t="n">
-        <v>921.9301938884096</v>
+        <v>1029.170353416903</v>
       </c>
       <c r="N25" t="n">
         <v>1136.070278545364</v>
       </c>
       <c r="O25" t="n">
-        <v>1541.657620062866</v>
+        <v>1541.657620062865</v>
       </c>
       <c r="P25" t="n">
         <v>1872.28415574375</v>
@@ -6174,25 +6174,25 @@
         <v>1986.445114104106</v>
       </c>
       <c r="S25" t="n">
-        <v>1986.445114104106</v>
+        <v>1818.423362863341</v>
       </c>
       <c r="T25" t="n">
-        <v>1751.400239417419</v>
+        <v>1583.378488176654</v>
       </c>
       <c r="U25" t="n">
-        <v>1751.400239417419</v>
+        <v>1300.637836863246</v>
       </c>
       <c r="V25" t="n">
-        <v>1477.514494356941</v>
+        <v>1300.637836863246</v>
       </c>
       <c r="W25" t="n">
-        <v>1198.444829865815</v>
+        <v>1300.637836863246</v>
       </c>
       <c r="X25" t="n">
-        <v>960.1009677254985</v>
+        <v>1188.801229933412</v>
       </c>
       <c r="Y25" t="n">
-        <v>735.3652691142632</v>
+        <v>964.0655313221766</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1272.359136997437</v>
+        <v>1278.019797777227</v>
       </c>
       <c r="C26" t="n">
-        <v>1272.359136997437</v>
+        <v>867.8952070904973</v>
       </c>
       <c r="D26" t="n">
         <v>867.8952070904973</v>
@@ -6226,19 +6226,19 @@
         <v>44.64574590746554</v>
       </c>
       <c r="J26" t="n">
-        <v>167.5334271492898</v>
+        <v>167.5334271492899</v>
       </c>
       <c r="K26" t="n">
         <v>372.2593058752964</v>
       </c>
       <c r="L26" t="n">
-        <v>641.1850750879078</v>
+        <v>641.1850750879075</v>
       </c>
       <c r="M26" t="n">
-        <v>953.2429319501307</v>
+        <v>953.2429319501301</v>
       </c>
       <c r="N26" t="n">
-        <v>1272.218803576257</v>
+        <v>1272.218803576256</v>
       </c>
       <c r="O26" t="n">
         <v>1568.017893256777</v>
@@ -6250,28 +6250,28 @@
         <v>1966.084838463272</v>
       </c>
       <c r="R26" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="S26" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="T26" t="n">
-        <v>1879.069189320722</v>
+        <v>1812.402164354918</v>
       </c>
       <c r="U26" t="n">
-        <v>1622.196691660956</v>
+        <v>1555.529666695152</v>
       </c>
       <c r="V26" t="n">
-        <v>1272.359136997437</v>
+        <v>1278.019797777227</v>
       </c>
       <c r="W26" t="n">
-        <v>1272.359136997437</v>
+        <v>1278.019797777227</v>
       </c>
       <c r="X26" t="n">
-        <v>1272.359136997437</v>
+        <v>1278.019797777227</v>
       </c>
       <c r="Y26" t="n">
-        <v>1272.359136997437</v>
+        <v>1278.019797777227</v>
       </c>
     </row>
     <row r="27">
@@ -6302,34 +6302,34 @@
         <v>40.48643694606871</v>
       </c>
       <c r="I27" t="n">
-        <v>43.01083102505505</v>
+        <v>43.01083102505504</v>
       </c>
       <c r="J27" t="n">
-        <v>108.5806640902073</v>
+        <v>352.2490680648406</v>
       </c>
       <c r="K27" t="n">
-        <v>252.3026566214988</v>
+        <v>495.9710605961321</v>
       </c>
       <c r="L27" t="n">
-        <v>464.3152411431561</v>
+        <v>707.9836451177894</v>
       </c>
       <c r="M27" t="n">
-        <v>719.5634589021241</v>
+        <v>963.2318628767574</v>
       </c>
       <c r="N27" t="n">
-        <v>987.4028386612733</v>
+        <v>1231.071242635907</v>
       </c>
       <c r="O27" t="n">
-        <v>1223.424527415253</v>
+        <v>1467.092931389886</v>
       </c>
       <c r="P27" t="n">
-        <v>1505.20165549492</v>
+        <v>1648.691252826069</v>
       </c>
       <c r="Q27" t="n">
-        <v>2006.22131270252</v>
+        <v>1918.251596225538</v>
       </c>
       <c r="R27" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="S27" t="n">
         <v>1939.686028373151</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>455.9603651193617</v>
+        <v>926.0791650572955</v>
       </c>
       <c r="C28" t="n">
-        <v>455.9603651193617</v>
+        <v>754.985792619012</v>
       </c>
       <c r="D28" t="n">
-        <v>455.9603651193617</v>
+        <v>595.491147941922</v>
       </c>
       <c r="E28" t="n">
-        <v>455.9603651193617</v>
+        <v>434.5803328102415</v>
       </c>
       <c r="F28" t="n">
         <v>291.3292392299529</v>
@@ -6384,52 +6384,52 @@
         <v>40.48643694606871</v>
       </c>
       <c r="J28" t="n">
-        <v>127.6105279304289</v>
+        <v>62.60916429909248</v>
       </c>
       <c r="K28" t="n">
-        <v>402.1925459421785</v>
+        <v>177.3984040230861</v>
       </c>
       <c r="L28" t="n">
-        <v>815.6863250168145</v>
+        <v>590.8921830977221</v>
       </c>
       <c r="M28" t="n">
-        <v>921.9301938884096</v>
+        <v>697.1360519693171</v>
       </c>
       <c r="N28" t="n">
-        <v>1360.864420464456</v>
+        <v>1136.070278545363</v>
       </c>
       <c r="O28" t="n">
-        <v>1766.451761981957</v>
+        <v>1541.657620062865</v>
       </c>
       <c r="P28" t="n">
         <v>1872.28415574375</v>
       </c>
       <c r="Q28" t="n">
-        <v>2024.321847303436</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="R28" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303435</v>
       </c>
       <c r="S28" t="n">
-        <v>1986.445114104106</v>
+        <v>1856.300096062671</v>
       </c>
       <c r="T28" t="n">
-        <v>1754.735986735926</v>
+        <v>1621.255221375984</v>
       </c>
       <c r="U28" t="n">
-        <v>1471.995335422517</v>
+        <v>1338.514570062575</v>
       </c>
       <c r="V28" t="n">
-        <v>1198.109590362039</v>
+        <v>1338.514570062575</v>
       </c>
       <c r="W28" t="n">
-        <v>919.0399258709135</v>
+        <v>1338.514570062575</v>
       </c>
       <c r="X28" t="n">
-        <v>680.696063730597</v>
+        <v>1338.514570062575</v>
       </c>
       <c r="Y28" t="n">
-        <v>455.9603651193617</v>
+        <v>1113.77887145134</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>867.8952070904973</v>
+        <v>851.3287249511243</v>
       </c>
       <c r="C29" t="n">
-        <v>867.8952070904973</v>
+        <v>851.3287249511243</v>
       </c>
       <c r="D29" t="n">
-        <v>867.8952070904973</v>
+        <v>446.8647950441848</v>
       </c>
       <c r="E29" t="n">
-        <v>867.8952070904973</v>
+        <v>446.8647950441848</v>
       </c>
       <c r="F29" t="n">
         <v>446.8647950441848</v>
@@ -6460,22 +6460,22 @@
         <v>40.48643694606871</v>
       </c>
       <c r="I29" t="n">
-        <v>44.64574590746554</v>
+        <v>44.64574590746543</v>
       </c>
       <c r="J29" t="n">
-        <v>167.5334271492899</v>
+        <v>167.5334271492895</v>
       </c>
       <c r="K29" t="n">
-        <v>372.2593058752964</v>
+        <v>372.259305875296</v>
       </c>
       <c r="L29" t="n">
-        <v>641.1850750879075</v>
+        <v>641.1850750879073</v>
       </c>
       <c r="M29" t="n">
-        <v>953.2429319501306</v>
+        <v>953.2429319501304</v>
       </c>
       <c r="N29" t="n">
-        <v>1272.218803576257</v>
+        <v>1272.218803576256</v>
       </c>
       <c r="O29" t="n">
         <v>1568.017893256777</v>
@@ -6490,25 +6490,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S29" t="n">
-        <v>1942.589711028803</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="T29" t="n">
-        <v>1730.670028080285</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="U29" t="n">
-        <v>1473.79753042052</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="V29" t="n">
-        <v>1123.959975757</v>
+        <v>1674.484292639916</v>
       </c>
       <c r="W29" t="n">
-        <v>867.8952070904973</v>
+        <v>1290.723991775085</v>
       </c>
       <c r="X29" t="n">
-        <v>867.8952070904973</v>
+        <v>890.0805939440377</v>
       </c>
       <c r="Y29" t="n">
-        <v>867.8952070904973</v>
+        <v>851.3287249511243</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>40.48643694606871</v>
       </c>
       <c r="I30" t="n">
-        <v>43.01083102505505</v>
+        <v>62.57863487475244</v>
       </c>
       <c r="J30" t="n">
-        <v>352.2490680648406</v>
+        <v>371.816871914538</v>
       </c>
       <c r="K30" t="n">
-        <v>495.9710605961321</v>
+        <v>515.5388644458295</v>
       </c>
       <c r="L30" t="n">
-        <v>707.9836451177894</v>
+        <v>727.5514489674867</v>
       </c>
       <c r="M30" t="n">
-        <v>963.2318628767574</v>
+        <v>982.7996667264548</v>
       </c>
       <c r="N30" t="n">
-        <v>1231.071242635907</v>
+        <v>1250.639046485604</v>
       </c>
       <c r="O30" t="n">
-        <v>1467.092931389886</v>
+        <v>1486.660735239583</v>
       </c>
       <c r="P30" t="n">
-        <v>1648.691252826069</v>
+        <v>1668.259056675766</v>
       </c>
       <c r="Q30" t="n">
-        <v>2006.22131270252</v>
+        <v>1918.251596225539</v>
       </c>
       <c r="R30" t="n">
         <v>2024.321847303436</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>820.5871706062359</v>
+        <v>916.6014092264938</v>
       </c>
       <c r="C31" t="n">
-        <v>649.4937981679524</v>
+        <v>916.6014092264938</v>
       </c>
       <c r="D31" t="n">
-        <v>489.9991534908624</v>
+        <v>757.1067645494038</v>
       </c>
       <c r="E31" t="n">
-        <v>431.5648235283147</v>
+        <v>596.1959494177233</v>
       </c>
       <c r="F31" t="n">
         <v>431.5648235283147</v>
@@ -6633,7 +6633,7 @@
         <v>1266.896543402695</v>
       </c>
       <c r="N31" t="n">
-        <v>1373.796468531156</v>
+        <v>1451.145037964104</v>
       </c>
       <c r="O31" t="n">
         <v>1541.657620062865</v>
@@ -6648,25 +6648,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S31" t="n">
-        <v>2024.321847303436</v>
+        <v>1856.300096062671</v>
       </c>
       <c r="T31" t="n">
-        <v>2024.321847303436</v>
+        <v>1621.255221375984</v>
       </c>
       <c r="U31" t="n">
-        <v>2024.321847303436</v>
+        <v>1621.255221375984</v>
       </c>
       <c r="V31" t="n">
-        <v>1750.436102242958</v>
+        <v>1347.369476315506</v>
       </c>
       <c r="W31" t="n">
-        <v>1471.366437751832</v>
+        <v>1154.94527136681</v>
       </c>
       <c r="X31" t="n">
-        <v>1233.022575611516</v>
+        <v>916.6014092264938</v>
       </c>
       <c r="Y31" t="n">
-        <v>1008.28687700028</v>
+        <v>916.6014092264938</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>744.3718139787536</v>
+        <v>450.6110276327986</v>
       </c>
       <c r="C32" t="n">
-        <v>744.3718139787536</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="D32" t="n">
-        <v>339.9078840718141</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="E32" t="n">
-        <v>339.9078840718141</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="F32" t="n">
-        <v>339.9078840718141</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="G32" t="n">
-        <v>327.3287545781499</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="H32" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I32" t="n">
-        <v>44.64574590746552</v>
+        <v>44.64574590746554</v>
       </c>
       <c r="J32" t="n">
-        <v>167.5334271492898</v>
+        <v>167.5334271492899</v>
       </c>
       <c r="K32" t="n">
-        <v>372.2593058752968</v>
+        <v>372.2593058752964</v>
       </c>
       <c r="L32" t="n">
-        <v>641.1850750879082</v>
+        <v>641.1850750879075</v>
       </c>
       <c r="M32" t="n">
-        <v>953.2429319501309</v>
+        <v>953.2429319501306</v>
       </c>
       <c r="N32" t="n">
         <v>1272.218803576257</v>
@@ -6721,7 +6721,7 @@
         <v>1806.502667397418</v>
       </c>
       <c r="Q32" t="n">
-        <v>1966.084838463273</v>
+        <v>1966.084838463272</v>
       </c>
       <c r="R32" t="n">
         <v>2024.321847303436</v>
@@ -6730,22 +6730,22 @@
         <v>2024.321847303436</v>
       </c>
       <c r="T32" t="n">
-        <v>1812.402164354919</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="U32" t="n">
-        <v>1555.529666695153</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="V32" t="n">
-        <v>1555.529666695153</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="W32" t="n">
-        <v>1555.529666695153</v>
+        <v>1662.412278180245</v>
       </c>
       <c r="X32" t="n">
-        <v>1555.529666695153</v>
+        <v>1261.768880349198</v>
       </c>
       <c r="Y32" t="n">
-        <v>1154.592993643243</v>
+        <v>860.8322072972881</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>685.1682898090088</v>
+        <v>685.1682898090091</v>
       </c>
       <c r="C33" t="n">
-        <v>551.1732185579544</v>
+        <v>551.1732185579548</v>
       </c>
       <c r="D33" t="n">
-        <v>434.2760607773469</v>
+        <v>434.2760607773472</v>
       </c>
       <c r="E33" t="n">
-        <v>313.7832447696749</v>
+        <v>313.7832447696752</v>
       </c>
       <c r="F33" t="n">
-        <v>204.8233649521794</v>
+        <v>204.8233649521798</v>
       </c>
       <c r="G33" t="n">
-        <v>99.09057352692729</v>
+        <v>99.09057352692761</v>
       </c>
       <c r="H33" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="I33" t="n">
         <v>43.01083102505505</v>
@@ -6800,7 +6800,7 @@
         <v>1648.691252826069</v>
       </c>
       <c r="Q33" t="n">
-        <v>2006.22131270252</v>
+        <v>1918.251596225539</v>
       </c>
       <c r="R33" t="n">
         <v>2024.321847303436</v>
@@ -6821,10 +6821,10 @@
         <v>1161.199263941873</v>
       </c>
       <c r="X33" t="n">
-        <v>984.8732820807654</v>
+        <v>984.8732820807658</v>
       </c>
       <c r="Y33" t="n">
-        <v>825.4713224445954</v>
+        <v>825.4713224445958</v>
       </c>
     </row>
     <row r="34">
@@ -6834,49 +6834,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1087.694781664777</v>
+        <v>462.4226116682364</v>
       </c>
       <c r="C34" t="n">
-        <v>916.6014092264938</v>
+        <v>291.3292392299529</v>
       </c>
       <c r="D34" t="n">
-        <v>757.1067645494038</v>
+        <v>291.3292392299529</v>
       </c>
       <c r="E34" t="n">
-        <v>596.1959494177233</v>
+        <v>291.3292392299529</v>
       </c>
       <c r="F34" t="n">
-        <v>431.5648235283147</v>
+        <v>291.3292392299529</v>
       </c>
       <c r="G34" t="n">
-        <v>265.3685283624266</v>
+        <v>125.1329440640648</v>
       </c>
       <c r="H34" t="n">
         <v>125.1329440640648</v>
       </c>
       <c r="I34" t="n">
-        <v>40.48643694606872</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="J34" t="n">
         <v>127.6105279304289</v>
       </c>
       <c r="K34" t="n">
-        <v>402.1925459421785</v>
+        <v>219.6034981877563</v>
       </c>
       <c r="L34" t="n">
-        <v>815.6863250168145</v>
+        <v>633.0972772623923</v>
       </c>
       <c r="M34" t="n">
-        <v>1029.170353416903</v>
+        <v>1084.307495648273</v>
       </c>
       <c r="N34" t="n">
-        <v>1136.070278545364</v>
+        <v>1523.241722224319</v>
       </c>
       <c r="O34" t="n">
-        <v>1541.657620062866</v>
+        <v>1928.829063741821</v>
       </c>
       <c r="P34" t="n">
-        <v>1872.28415574375</v>
+        <v>1998.558115949587</v>
       </c>
       <c r="Q34" t="n">
         <v>2024.321847303436</v>
@@ -6888,22 +6888,22 @@
         <v>2024.321847303436</v>
       </c>
       <c r="T34" t="n">
-        <v>2024.321847303436</v>
+        <v>1789.276972616749</v>
       </c>
       <c r="U34" t="n">
-        <v>2024.321847303436</v>
+        <v>1506.53632130334</v>
       </c>
       <c r="V34" t="n">
-        <v>2017.543713301499</v>
+        <v>1232.650576242862</v>
       </c>
       <c r="W34" t="n">
-        <v>1738.474048810373</v>
+        <v>953.5809117517365</v>
       </c>
       <c r="X34" t="n">
-        <v>1500.130186670057</v>
+        <v>715.2370496114199</v>
       </c>
       <c r="Y34" t="n">
-        <v>1275.394488058822</v>
+        <v>490.5013510001846</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>856.9893857309147</v>
+        <v>1614.100667638946</v>
       </c>
       <c r="C35" t="n">
-        <v>446.8647950441848</v>
+        <v>1203.976076952216</v>
       </c>
       <c r="D35" t="n">
-        <v>446.8647950441848</v>
+        <v>1203.976076952216</v>
       </c>
       <c r="E35" t="n">
-        <v>446.8647950441848</v>
+        <v>789.635861469113</v>
       </c>
       <c r="F35" t="n">
-        <v>446.8647950441848</v>
+        <v>368.6054494228006</v>
       </c>
       <c r="G35" t="n">
         <v>40.48643694606871</v>
@@ -6934,19 +6934,19 @@
         <v>40.48643694606871</v>
       </c>
       <c r="I35" t="n">
-        <v>44.6457459074655</v>
+        <v>44.6457459074652</v>
       </c>
       <c r="J35" t="n">
-        <v>167.5334271492898</v>
+        <v>167.5334271492893</v>
       </c>
       <c r="K35" t="n">
-        <v>372.2593058752964</v>
+        <v>372.2593058752958</v>
       </c>
       <c r="L35" t="n">
-        <v>641.1850750879073</v>
+        <v>641.1850750879071</v>
       </c>
       <c r="M35" t="n">
-        <v>953.2429319501305</v>
+        <v>953.2429319501301</v>
       </c>
       <c r="N35" t="n">
         <v>1272.218803576256</v>
@@ -6961,28 +6961,28 @@
         <v>1966.084838463272</v>
       </c>
       <c r="R35" t="n">
-        <v>2024.321847303435</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S35" t="n">
-        <v>2024.321847303435</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="T35" t="n">
-        <v>2024.321847303435</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="U35" t="n">
-        <v>2024.321847303435</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="V35" t="n">
-        <v>1674.484292639916</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="W35" t="n">
-        <v>1290.723991775085</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="X35" t="n">
-        <v>890.0805939440372</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="Y35" t="n">
-        <v>890.0805939440372</v>
+        <v>2024.321847303436</v>
       </c>
     </row>
     <row r="36">
@@ -6992,55 +6992,55 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>685.1682898090091</v>
+        <v>685.1682898090088</v>
       </c>
       <c r="C36" t="n">
-        <v>551.1732185579548</v>
+        <v>551.1732185579544</v>
       </c>
       <c r="D36" t="n">
-        <v>434.2760607773472</v>
+        <v>434.2760607773469</v>
       </c>
       <c r="E36" t="n">
-        <v>313.7832447696752</v>
+        <v>313.7832447696749</v>
       </c>
       <c r="F36" t="n">
-        <v>204.8233649521798</v>
+        <v>204.8233649521794</v>
       </c>
       <c r="G36" t="n">
-        <v>99.09057352692761</v>
+        <v>99.09057352692729</v>
       </c>
       <c r="H36" t="n">
         <v>40.48643694606871</v>
       </c>
       <c r="I36" t="n">
-        <v>43.01083102505504</v>
+        <v>62.57863487475244</v>
       </c>
       <c r="J36" t="n">
-        <v>108.5806640902073</v>
+        <v>128.1484679399047</v>
       </c>
       <c r="K36" t="n">
-        <v>609.6003212978076</v>
+        <v>629.1681251475051</v>
       </c>
       <c r="L36" t="n">
-        <v>964.3373108601496</v>
+        <v>841.1807096691623</v>
       </c>
       <c r="M36" t="n">
-        <v>1219.585528619118</v>
+        <v>1096.42892742813</v>
       </c>
       <c r="N36" t="n">
-        <v>1487.424908378267</v>
+        <v>1364.268307187279</v>
       </c>
       <c r="O36" t="n">
-        <v>1723.446597132246</v>
+        <v>1600.289995941259</v>
       </c>
       <c r="P36" t="n">
-        <v>1905.044918568429</v>
+        <v>1781.888317377442</v>
       </c>
       <c r="Q36" t="n">
         <v>2006.22131270252</v>
       </c>
       <c r="R36" t="n">
-        <v>2024.321847303435</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S36" t="n">
         <v>1939.686028373151</v>
@@ -7058,10 +7058,10 @@
         <v>1161.199263941873</v>
       </c>
       <c r="X36" t="n">
-        <v>984.8732820807658</v>
+        <v>984.8732820807654</v>
       </c>
       <c r="Y36" t="n">
-        <v>825.4713224445958</v>
+        <v>825.4713224445954</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>96.90316016604518</v>
+        <v>134.7798933653758</v>
       </c>
       <c r="C37" t="n">
-        <v>96.90316016604518</v>
+        <v>134.7798933653758</v>
       </c>
       <c r="D37" t="n">
-        <v>96.90316016604518</v>
+        <v>134.7798933653758</v>
       </c>
       <c r="E37" t="n">
-        <v>40.48643694606871</v>
+        <v>134.7798933653758</v>
       </c>
       <c r="F37" t="n">
-        <v>40.48643694606871</v>
+        <v>134.7798933653758</v>
       </c>
       <c r="G37" t="n">
         <v>40.48643694606871</v>
@@ -7098,49 +7098,49 @@
         <v>127.6105279304289</v>
       </c>
       <c r="K37" t="n">
-        <v>195.9123523564643</v>
+        <v>402.1925459421785</v>
       </c>
       <c r="L37" t="n">
-        <v>609.4061314311003</v>
+        <v>815.6863250168145</v>
       </c>
       <c r="M37" t="n">
-        <v>1060.616349816981</v>
+        <v>1266.896543402695</v>
       </c>
       <c r="N37" t="n">
-        <v>1499.550576393027</v>
+        <v>1705.830769978741</v>
       </c>
       <c r="O37" t="n">
-        <v>1590.063158491788</v>
+        <v>1796.343352077502</v>
       </c>
       <c r="P37" t="n">
-        <v>1920.689694172673</v>
+        <v>1872.28415574375</v>
       </c>
       <c r="Q37" t="n">
-        <v>2024.321847303435</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="R37" t="n">
-        <v>1986.445114104105</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S37" t="n">
-        <v>1818.423362863341</v>
+        <v>1856.300096062671</v>
       </c>
       <c r="T37" t="n">
-        <v>1583.378488176654</v>
+        <v>1621.255221375984</v>
       </c>
       <c r="U37" t="n">
-        <v>1300.637836863245</v>
+        <v>1338.514570062576</v>
       </c>
       <c r="V37" t="n">
-        <v>1026.752091802767</v>
+        <v>1064.628825002098</v>
       </c>
       <c r="W37" t="n">
-        <v>747.6824273116415</v>
+        <v>785.5591605109721</v>
       </c>
       <c r="X37" t="n">
-        <v>509.3385651713249</v>
+        <v>547.2152983706555</v>
       </c>
       <c r="Y37" t="n">
-        <v>284.6028665600896</v>
+        <v>322.4795997594202</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1213.163994587036</v>
+        <v>875.8570644754844</v>
       </c>
       <c r="C38" t="n">
-        <v>861.2050105272881</v>
+        <v>875.8570644754844</v>
       </c>
       <c r="D38" t="n">
-        <v>861.2050105272881</v>
+        <v>875.8570644754844</v>
       </c>
       <c r="E38" t="n">
-        <v>446.8647950441848</v>
+        <v>461.5168489923811</v>
       </c>
       <c r="F38" t="n">
-        <v>446.8647950441848</v>
+        <v>40.48643694606871</v>
       </c>
       <c r="G38" t="n">
         <v>40.48643694606871</v>
@@ -7174,16 +7174,16 @@
         <v>44.64574590746543</v>
       </c>
       <c r="J38" t="n">
-        <v>167.5334271492895</v>
+        <v>167.5334271492898</v>
       </c>
       <c r="K38" t="n">
-        <v>372.259305875296</v>
+        <v>372.2593058752964</v>
       </c>
       <c r="L38" t="n">
-        <v>641.1850750879072</v>
+        <v>641.1850750879075</v>
       </c>
       <c r="M38" t="n">
-        <v>953.2429319501301</v>
+        <v>953.2429319501304</v>
       </c>
       <c r="N38" t="n">
         <v>1272.218803576256</v>
@@ -7198,28 +7198,28 @@
         <v>1966.084838463272</v>
       </c>
       <c r="R38" t="n">
-        <v>2024.321847303435</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S38" t="n">
-        <v>2024.321847303435</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="T38" t="n">
-        <v>2024.321847303435</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="U38" t="n">
-        <v>2024.321847303435</v>
+        <v>1767.44934964367</v>
       </c>
       <c r="V38" t="n">
-        <v>2024.321847303435</v>
+        <v>1767.44934964367</v>
       </c>
       <c r="W38" t="n">
-        <v>2024.321847303435</v>
+        <v>1767.44934964367</v>
       </c>
       <c r="X38" t="n">
-        <v>2024.321847303435</v>
+        <v>1366.805951812623</v>
       </c>
       <c r="Y38" t="n">
-        <v>1623.385174251525</v>
+        <v>1286.078244139974</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>685.1682898090083</v>
+        <v>685.1682898090088</v>
       </c>
       <c r="C39" t="n">
-        <v>551.173218557954</v>
+        <v>551.1732185579544</v>
       </c>
       <c r="D39" t="n">
-        <v>434.2760607773464</v>
+        <v>434.2760607773469</v>
       </c>
       <c r="E39" t="n">
-        <v>313.7832447696744</v>
+        <v>313.7832447696749</v>
       </c>
       <c r="F39" t="n">
-        <v>204.823364952179</v>
+        <v>204.8233649521794</v>
       </c>
       <c r="G39" t="n">
-        <v>99.09057352692683</v>
+        <v>99.09057352692761</v>
       </c>
       <c r="H39" t="n">
         <v>40.48643694606871</v>
@@ -7253,31 +7253,31 @@
         <v>62.57863487475244</v>
       </c>
       <c r="J39" t="n">
-        <v>371.816871914538</v>
+        <v>128.1484679399047</v>
       </c>
       <c r="K39" t="n">
-        <v>515.5388644458295</v>
+        <v>271.8704604711962</v>
       </c>
       <c r="L39" t="n">
-        <v>727.5514489674867</v>
+        <v>772.8901176787965</v>
       </c>
       <c r="M39" t="n">
-        <v>982.7996667264548</v>
+        <v>1028.138335437764</v>
       </c>
       <c r="N39" t="n">
-        <v>1250.639046485604</v>
+        <v>1295.977715196914</v>
       </c>
       <c r="O39" t="n">
-        <v>1486.660735239583</v>
+        <v>1635.476880655266</v>
       </c>
       <c r="P39" t="n">
-        <v>1668.259056675766</v>
+        <v>1817.075202091449</v>
       </c>
       <c r="Q39" t="n">
-        <v>2006.22131270252</v>
+        <v>1918.251596225539</v>
       </c>
       <c r="R39" t="n">
-        <v>2024.321847303435</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S39" t="n">
         <v>1939.686028373151</v>
@@ -7292,13 +7292,13 @@
         <v>1374.432432205544</v>
       </c>
       <c r="W39" t="n">
-        <v>1161.199263941872</v>
+        <v>1161.199263941873</v>
       </c>
       <c r="X39" t="n">
-        <v>984.873282080765</v>
+        <v>984.8732820807654</v>
       </c>
       <c r="Y39" t="n">
-        <v>825.471322444595</v>
+        <v>825.4713224445954</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>744.383439858012</v>
+        <v>627.0537375576451</v>
       </c>
       <c r="C40" t="n">
-        <v>573.2900674197285</v>
+        <v>455.9603651193617</v>
       </c>
       <c r="D40" t="n">
-        <v>573.2900674197285</v>
+        <v>455.9603651193617</v>
       </c>
       <c r="E40" t="n">
-        <v>573.2900674197285</v>
+        <v>455.9603651193617</v>
       </c>
       <c r="F40" t="n">
-        <v>408.6589415303198</v>
+        <v>291.3292392299529</v>
       </c>
       <c r="G40" t="n">
-        <v>242.4626463644317</v>
+        <v>125.1329440640648</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2270620660699</v>
+        <v>125.1329440640648</v>
       </c>
       <c r="I40" t="n">
         <v>40.48643694606871</v>
@@ -7335,49 +7335,49 @@
         <v>127.6105279304289</v>
       </c>
       <c r="K40" t="n">
-        <v>195.9123523564643</v>
+        <v>195.9123523564644</v>
       </c>
       <c r="L40" t="n">
         <v>609.4061314311003</v>
       </c>
       <c r="M40" t="n">
-        <v>715.6500003026954</v>
+        <v>1060.616349816981</v>
       </c>
       <c r="N40" t="n">
-        <v>1154.584226878742</v>
+        <v>1499.550576393027</v>
       </c>
       <c r="O40" t="n">
-        <v>1560.171568396243</v>
+        <v>1905.137917910529</v>
       </c>
       <c r="P40" t="n">
-        <v>1890.798104077128</v>
+        <v>1998.558115949587</v>
       </c>
       <c r="Q40" t="n">
-        <v>2024.321847303435</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="R40" t="n">
-        <v>1986.445114104105</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S40" t="n">
-        <v>1818.423362863341</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="T40" t="n">
-        <v>1818.423362863341</v>
+        <v>1789.276972616749</v>
       </c>
       <c r="U40" t="n">
-        <v>1535.682711549932</v>
+        <v>1506.53632130334</v>
       </c>
       <c r="V40" t="n">
-        <v>1261.796966489454</v>
+        <v>1369.202962800323</v>
       </c>
       <c r="W40" t="n">
-        <v>982.7273019983286</v>
+        <v>1090.133298309197</v>
       </c>
       <c r="X40" t="n">
-        <v>744.383439858012</v>
+        <v>851.7894361688805</v>
       </c>
       <c r="Y40" t="n">
-        <v>744.383439858012</v>
+        <v>627.0537375576451</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>545.3296563324967</v>
+        <v>444.9503668530082</v>
       </c>
       <c r="C41" t="n">
-        <v>545.3296563324967</v>
+        <v>444.9503668530082</v>
       </c>
       <c r="D41" t="n">
-        <v>545.3296563324967</v>
+        <v>40.48643694606872</v>
       </c>
       <c r="E41" t="n">
-        <v>545.3296563324967</v>
+        <v>40.48643694606872</v>
       </c>
       <c r="F41" t="n">
-        <v>545.3296563324967</v>
+        <v>40.48643694606872</v>
       </c>
       <c r="G41" t="n">
-        <v>327.3287545781499</v>
+        <v>40.48643694606872</v>
       </c>
       <c r="H41" t="n">
-        <v>40.48643694606871</v>
+        <v>40.48643694606872</v>
       </c>
       <c r="I41" t="n">
-        <v>44.64574590746543</v>
+        <v>44.64574590746554</v>
       </c>
       <c r="J41" t="n">
-        <v>167.5334271492898</v>
+        <v>167.5334271492899</v>
       </c>
       <c r="K41" t="n">
         <v>372.2593058752964</v>
       </c>
       <c r="L41" t="n">
-        <v>641.1850750879076</v>
+        <v>641.1850750879075</v>
       </c>
       <c r="M41" t="n">
-        <v>953.2429319501305</v>
+        <v>953.2429319501306</v>
       </c>
       <c r="N41" t="n">
         <v>1272.218803576257</v>
@@ -7432,31 +7432,31 @@
         <v>1806.502667397418</v>
       </c>
       <c r="Q41" t="n">
-        <v>1966.084838463272</v>
+        <v>1966.084838463273</v>
       </c>
       <c r="R41" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="S41" t="n">
-        <v>1942.589711028803</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="T41" t="n">
-        <v>1730.670028080285</v>
+        <v>1812.402164354919</v>
       </c>
       <c r="U41" t="n">
-        <v>1730.670028080285</v>
+        <v>1555.529666695153</v>
       </c>
       <c r="V41" t="n">
-        <v>1730.670028080285</v>
+        <v>1205.692112031634</v>
       </c>
       <c r="W41" t="n">
-        <v>1346.909727215454</v>
+        <v>1205.692112031634</v>
       </c>
       <c r="X41" t="n">
-        <v>946.2663293844066</v>
+        <v>805.0487142005863</v>
       </c>
       <c r="Y41" t="n">
-        <v>545.3296563324967</v>
+        <v>444.9503668530082</v>
       </c>
     </row>
     <row r="42">
@@ -7478,19 +7478,19 @@
         <v>313.7832447696749</v>
       </c>
       <c r="F42" t="n">
-        <v>204.8233649521794</v>
+        <v>204.8233649521798</v>
       </c>
       <c r="G42" t="n">
-        <v>99.09057352692729</v>
+        <v>99.09057352692761</v>
       </c>
       <c r="H42" t="n">
-        <v>40.48643694606871</v>
+        <v>40.48643694606872</v>
       </c>
       <c r="I42" t="n">
-        <v>62.57863487475244</v>
+        <v>62.57863487475245</v>
       </c>
       <c r="J42" t="n">
-        <v>371.816871914538</v>
+        <v>371.8168719145381</v>
       </c>
       <c r="K42" t="n">
         <v>515.5388644458295</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1087.694781664777</v>
+        <v>691.7193178101361</v>
       </c>
       <c r="C43" t="n">
-        <v>916.6014092264938</v>
+        <v>691.7193178101361</v>
       </c>
       <c r="D43" t="n">
-        <v>757.1067645494038</v>
+        <v>532.2246731330461</v>
       </c>
       <c r="E43" t="n">
-        <v>596.1959494177233</v>
+        <v>371.3138580013656</v>
       </c>
       <c r="F43" t="n">
-        <v>431.5648235283147</v>
+        <v>206.6827321119568</v>
       </c>
       <c r="G43" t="n">
-        <v>265.3685283624266</v>
+        <v>40.48643694606872</v>
       </c>
       <c r="H43" t="n">
-        <v>125.1329440640648</v>
+        <v>40.48643694606872</v>
       </c>
       <c r="I43" t="n">
-        <v>40.48643694606871</v>
+        <v>40.48643694606872</v>
       </c>
       <c r="J43" t="n">
-        <v>62.60916429909249</v>
+        <v>127.6105279304289</v>
       </c>
       <c r="K43" t="n">
-        <v>337.1911823108421</v>
+        <v>195.9123523564644</v>
       </c>
       <c r="L43" t="n">
-        <v>436.7058501504551</v>
+        <v>609.4061314311003</v>
       </c>
       <c r="M43" t="n">
-        <v>887.9160685363356</v>
+        <v>1060.616349816981</v>
       </c>
       <c r="N43" t="n">
-        <v>1326.850295112382</v>
+        <v>1499.550576393027</v>
       </c>
       <c r="O43" t="n">
-        <v>1732.437636629883</v>
+        <v>1590.063158491788</v>
       </c>
       <c r="P43" t="n">
-        <v>1998.558115949587</v>
+        <v>1920.689694172673</v>
       </c>
       <c r="Q43" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="R43" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S43" t="n">
-        <v>1818.423362863341</v>
+        <v>1950.15995975588</v>
       </c>
       <c r="T43" t="n">
-        <v>1583.378488176654</v>
+        <v>1715.115085069193</v>
       </c>
       <c r="U43" t="n">
-        <v>1300.637836863246</v>
+        <v>1432.374433755784</v>
       </c>
       <c r="V43" t="n">
-        <v>1275.394488058822</v>
+        <v>1158.488688695306</v>
       </c>
       <c r="W43" t="n">
-        <v>1275.394488058822</v>
+        <v>879.4190242041805</v>
       </c>
       <c r="X43" t="n">
-        <v>1275.394488058822</v>
+        <v>879.4190242041805</v>
       </c>
       <c r="Y43" t="n">
-        <v>1275.394488058822</v>
+        <v>879.4190242041805</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>446.8647950441848</v>
+        <v>1261.453315637854</v>
       </c>
       <c r="C44" t="n">
-        <v>446.8647950441848</v>
+        <v>851.3287249511243</v>
       </c>
       <c r="D44" t="n">
         <v>446.8647950441848</v>
@@ -7651,49 +7651,49 @@
         <v>167.5334271492898</v>
       </c>
       <c r="K44" t="n">
-        <v>372.2593058752966</v>
+        <v>372.2593058752964</v>
       </c>
       <c r="L44" t="n">
-        <v>641.1850750879079</v>
+        <v>641.1850750879081</v>
       </c>
       <c r="M44" t="n">
-        <v>953.2429319501307</v>
+        <v>953.242931950131</v>
       </c>
       <c r="N44" t="n">
         <v>1272.218803576257</v>
       </c>
       <c r="O44" t="n">
-        <v>1568.017893256777</v>
+        <v>1568.017893256778</v>
       </c>
       <c r="P44" t="n">
         <v>1806.502667397418</v>
       </c>
       <c r="Q44" t="n">
-        <v>1966.084838463272</v>
+        <v>1966.084838463273</v>
       </c>
       <c r="R44" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="S44" t="n">
-        <v>1942.589711028803</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="T44" t="n">
-        <v>1730.670028080286</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="U44" t="n">
-        <v>1473.79753042052</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="V44" t="n">
-        <v>1123.959975757001</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="W44" t="n">
-        <v>1123.959975757001</v>
+        <v>1662.389988689764</v>
       </c>
       <c r="X44" t="n">
-        <v>723.3165779259532</v>
+        <v>1662.389988689764</v>
       </c>
       <c r="Y44" t="n">
-        <v>446.8647950441848</v>
+        <v>1261.453315637854</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>685.1682898090088</v>
+        <v>685.1682898090091</v>
       </c>
       <c r="C45" t="n">
-        <v>551.1732185579544</v>
+        <v>551.1732185579548</v>
       </c>
       <c r="D45" t="n">
-        <v>434.2760607773469</v>
+        <v>434.2760607773472</v>
       </c>
       <c r="E45" t="n">
-        <v>313.7832447696749</v>
+        <v>313.7832447696752</v>
       </c>
       <c r="F45" t="n">
-        <v>204.8233649521794</v>
+        <v>204.8233649521798</v>
       </c>
       <c r="G45" t="n">
-        <v>99.09057352692729</v>
+        <v>99.09057352692761</v>
       </c>
       <c r="H45" t="n">
         <v>40.48643694606872</v>
@@ -7727,25 +7727,25 @@
         <v>62.57863487475245</v>
       </c>
       <c r="J45" t="n">
-        <v>128.1484679399047</v>
+        <v>371.8168719145381</v>
       </c>
       <c r="K45" t="n">
-        <v>271.8704604711962</v>
+        <v>515.5388644458295</v>
       </c>
       <c r="L45" t="n">
-        <v>483.8830449928535</v>
+        <v>727.5514489674867</v>
       </c>
       <c r="M45" t="n">
-        <v>739.1312627518215</v>
+        <v>982.7996667264548</v>
       </c>
       <c r="N45" t="n">
-        <v>1240.150919959422</v>
+        <v>1250.639046485604</v>
       </c>
       <c r="O45" t="n">
-        <v>1476.172608713401</v>
+        <v>1486.660735239583</v>
       </c>
       <c r="P45" t="n">
-        <v>1657.770930149584</v>
+        <v>1668.259056675766</v>
       </c>
       <c r="Q45" t="n">
         <v>1918.251596225539</v>
@@ -7769,10 +7769,10 @@
         <v>1161.199263941873</v>
       </c>
       <c r="X45" t="n">
-        <v>984.8732820807654</v>
+        <v>984.8732820807658</v>
       </c>
       <c r="Y45" t="n">
-        <v>825.4713224445954</v>
+        <v>825.4713224445958</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>376.2109352737609</v>
+        <v>725.5462256868719</v>
       </c>
       <c r="C46" t="n">
-        <v>205.1175628354775</v>
+        <v>725.5462256868719</v>
       </c>
       <c r="D46" t="n">
-        <v>205.1175628354775</v>
+        <v>590.9104693835159</v>
       </c>
       <c r="E46" t="n">
-        <v>205.1175628354775</v>
+        <v>429.9996542518353</v>
       </c>
       <c r="F46" t="n">
-        <v>40.48643694606872</v>
+        <v>265.3685283624266</v>
       </c>
       <c r="G46" t="n">
-        <v>40.48643694606872</v>
+        <v>265.3685283624266</v>
       </c>
       <c r="H46" t="n">
-        <v>40.48643694606872</v>
+        <v>125.1329440640648</v>
       </c>
       <c r="I46" t="n">
         <v>40.48643694606872</v>
       </c>
       <c r="J46" t="n">
-        <v>62.6091642990925</v>
+        <v>127.6105279304289</v>
       </c>
       <c r="K46" t="n">
-        <v>303.6723642289238</v>
+        <v>402.1925459421785</v>
       </c>
       <c r="L46" t="n">
-        <v>717.1661433035598</v>
+        <v>815.6863250168145</v>
       </c>
       <c r="M46" t="n">
-        <v>823.4100121751549</v>
+        <v>1029.170353416903</v>
       </c>
       <c r="N46" t="n">
-        <v>1262.344238751201</v>
+        <v>1136.070278545364</v>
       </c>
       <c r="O46" t="n">
-        <v>1667.931580268703</v>
+        <v>1541.657620062866</v>
       </c>
       <c r="P46" t="n">
-        <v>1998.558115949588</v>
+        <v>1872.28415574375</v>
       </c>
       <c r="Q46" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="R46" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S46" t="n">
-        <v>1818.423362863341</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="T46" t="n">
-        <v>1583.378488176654</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="U46" t="n">
-        <v>1300.637836863246</v>
+        <v>1741.581195990027</v>
       </c>
       <c r="V46" t="n">
-        <v>1026.752091802768</v>
+        <v>1467.695450929549</v>
       </c>
       <c r="W46" t="n">
-        <v>788.6463402790406</v>
+        <v>1188.625786438424</v>
       </c>
       <c r="X46" t="n">
-        <v>788.6463402790406</v>
+        <v>950.2819242981072</v>
       </c>
       <c r="Y46" t="n">
-        <v>563.9106416678053</v>
+        <v>725.5462256868719</v>
       </c>
     </row>
   </sheetData>
@@ -8452,16 +8452,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>28.24975120521682</v>
+        <v>30.09747728131218</v>
       </c>
       <c r="K8" t="n">
-        <v>23.43011358499584</v>
+        <v>21.58238750890048</v>
       </c>
       <c r="L8" t="n">
-        <v>11.67868484452067</v>
+        <v>13.45175532158187</v>
       </c>
       <c r="M8" t="n">
-        <v>1.812178653847116</v>
+        <v>1.886834252881272</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -8473,7 +8473,7 @@
         <v>17.28093897160524</v>
       </c>
       <c r="Q8" t="n">
-        <v>34.5320242600466</v>
+        <v>32.68429818395125</v>
       </c>
       <c r="R8" t="n">
         <v>53.95236302478607</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>34.59103480405435</v>
+        <v>36.4387608801497</v>
       </c>
       <c r="K10" t="n">
         <v>26.42133376910127</v>
@@ -8619,10 +8619,10 @@
         <v>21.05929355704222</v>
       </c>
       <c r="M10" t="n">
-        <v>20.77069636388258</v>
+        <v>18.92297028778722</v>
       </c>
       <c r="N10" t="n">
-        <v>17.03165241025344</v>
+        <v>15.25858193319224</v>
       </c>
       <c r="O10" t="n">
         <v>22.40367010010781</v>
@@ -8631,7 +8631,7 @@
         <v>26.968289224719</v>
       </c>
       <c r="Q10" t="n">
-        <v>41.41190018666367</v>
+        <v>43.18497066372487</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>13.05159851894228</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>191.9897267353755</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>119.6962773753561</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>9.850990196583339</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,25 +8847,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>4.512486245846731</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>202.8150057014315</v>
       </c>
       <c r="M13" t="n">
-        <v>199.0880865758755</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>209.1244170691993</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>218.7468935837844</v>
+        <v>154.6351028065569</v>
       </c>
       <c r="Q13" t="n">
         <v>127.5494547533709</v>
@@ -9005,7 +9005,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>112.9824174602604</v>
+        <v>112.9824174602608</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>4.512486245846731</v>
+        <v>4.512486245846723</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>202.8150057014316</v>
       </c>
       <c r="M16" t="n">
-        <v>199.0880865758755</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>197.0094259966264</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>8.493889614068237</v>
+        <v>115.1748472902821</v>
       </c>
       <c r="P16" t="n">
-        <v>222.3679950422891</v>
+        <v>222.3679950422892</v>
       </c>
       <c r="Q16" t="n">
-        <v>127.5494547533709</v>
+        <v>5.787172043465716</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>19.76545843403778</v>
+        <v>13.05159851894228</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>191.9897267353757</v>
+        <v>198.7035866504709</v>
       </c>
       <c r="R18" t="n">
-        <v>9.850990196583354</v>
+        <v>9.850990196583339</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,13 +9321,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>4.512486245846738</v>
+        <v>4.512486245846723</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>130.2561723239734</v>
+        <v>143.4997502970633</v>
       </c>
       <c r="M19" t="n">
         <v>199.0880865758755</v>
@@ -9336,13 +9336,13 @@
         <v>197.0094259966264</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>209.1244170691993</v>
       </c>
       <c r="P19" t="n">
-        <v>222.3679950422891</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.787172043465731</v>
+        <v>5.787172043465716</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>112.9824174602604</v>
+        <v>191.9897267353757</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>88.85829947169823</v>
+        <v>9.850990196583339</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>4.512486245846731</v>
+        <v>4.512486245846723</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>202.8150057014315</v>
+        <v>143.4997502970632</v>
       </c>
       <c r="M22" t="n">
-        <v>18.010548461602</v>
+        <v>199.0880865758756</v>
       </c>
       <c r="N22" t="n">
-        <v>197.0094259966264</v>
+        <v>197.0094259966265</v>
       </c>
       <c r="O22" t="n">
-        <v>209.1244170691993</v>
+        <v>209.1244170691994</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>127.5494547533709</v>
+        <v>5.787172043465716</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9725,19 +9725,19 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>248.2539792410428</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>235.5356337863143</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>322.6478139105227</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.517726232538877</v>
+        <v>162.659525349373</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -9804,10 +9804,10 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>108.3233934631249</v>
       </c>
       <c r="N25" t="n">
-        <v>108.3233934631251</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>318.2573327462026</v>
@@ -9953,7 +9953,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>101.190713781297</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>403.8820839126365</v>
+        <v>170.0847972377568</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,10 +10032,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>208.3638319047618</v>
+        <v>46.95698514945262</v>
       </c>
       <c r="L28" t="n">
         <v>317.1506174091142</v>
@@ -10050,7 +10050,7 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P28" t="n">
-        <v>36.46802177174354</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q28" t="n">
         <v>127.5494547533709</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
         <v>246.129700984478</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>258.9430967094555</v>
+        <v>150.3193388037196</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10281,10 +10281,10 @@
         <v>348.4508580952379</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>78.12986811408966</v>
       </c>
       <c r="O31" t="n">
-        <v>78.12986811408976</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>263.5328115890082</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>258.9430967094557</v>
+        <v>170.0847972377573</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10509,25 +10509,25 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K34" t="n">
-        <v>208.3638319047618</v>
+        <v>23.93045033463827</v>
       </c>
       <c r="L34" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M34" t="n">
-        <v>108.3233934631251</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O34" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P34" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>360.9067319962714</v>
+        <v>360.9067319962716</v>
       </c>
       <c r="L36" t="n">
-        <v>144.1660656976613</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>124.4006072636244</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -10746,7 +10746,7 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L37" t="n">
         <v>317.1506174091142</v>
@@ -10761,10 +10761,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>263.5328115890082</v>
+        <v>6.27449642270831</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.65497149183234</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10901,13 +10901,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>246.129700984478</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>291.9263360464071</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>104.5227037417903</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>239.1776382754172</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10989,7 +10989,7 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N40" t="n">
         <v>335.3881832803894</v>
@@ -10998,10 +10998,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P40" t="n">
-        <v>263.5328115890082</v>
+        <v>23.93045033463832</v>
       </c>
       <c r="Q40" t="n">
-        <v>108.8484968408676</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>239.1776382754177</v>
+        <v>239.1776382754179</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -11217,13 +11217,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K43" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M43" t="n">
         <v>348.4508580952379</v>
@@ -11232,13 +11232,13 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O43" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>198.3751789009465</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>78.65497149183304</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11387,7 +11387,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>235.5356337863143</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>160.9134060018834</v>
+        <v>150.3193388037198</v>
       </c>
       <c r="R45" t="n">
         <v>88.85829947169823</v>
@@ -11454,19 +11454,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K46" t="n">
-        <v>174.5064399028241</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L46" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>108.3233934631252</v>
       </c>
       <c r="N46" t="n">
-        <v>335.3881832803894</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>318.2573327462026</v>
@@ -11475,7 +11475,7 @@
         <v>263.5328115890082</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23023,7 +23023,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>404.3958676520378</v>
       </c>
       <c r="D8" t="n">
         <v>400.41929060787</v>
@@ -23032,16 +23032,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>414.972381849754</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>402.4824548721191</v>
+        <v>402.2622059238485</v>
       </c>
       <c r="H8" t="n">
-        <v>300.5128732004819</v>
+        <v>302.3605992765773</v>
       </c>
       <c r="I8" t="n">
-        <v>63.16647109666687</v>
+        <v>65.01419717276222</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23077,13 +23077,13 @@
         <v>217.6596635000282</v>
       </c>
       <c r="U8" t="n">
-        <v>254.4474012817928</v>
+        <v>252.5996752056975</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>378.0749717800878</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
@@ -23114,13 +23114,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G9" t="n">
-        <v>104.0085873231513</v>
+        <v>105.6360644509761</v>
       </c>
       <c r="H9" t="n">
-        <v>65.44775190135952</v>
+        <v>67.29547797745488</v>
       </c>
       <c r="I9" t="n">
-        <v>8.91024431769981</v>
+        <v>10.75797039379517</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23150,19 +23150,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>101.6322018848435</v>
+        <v>100.0047247570187</v>
       </c>
       <c r="T9" t="n">
         <v>156.6031329288336</v>
       </c>
       <c r="U9" t="n">
-        <v>195.3586088644905</v>
+        <v>193.5108827883952</v>
       </c>
       <c r="V9" t="n">
         <v>209.7266856608011</v>
       </c>
       <c r="W9" t="n">
-        <v>211.1008365810345</v>
+        <v>209.2531105049392</v>
       </c>
       <c r="X9" t="n">
         <v>174.5627220424961</v>
@@ -23226,19 +23226,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>71.86105503477877</v>
+        <v>73.70878111087413</v>
       </c>
       <c r="S10" t="n">
         <v>178.5286100828844</v>
       </c>
       <c r="T10" t="n">
-        <v>234.2876790720675</v>
+        <v>234.507928020338</v>
       </c>
       <c r="U10" t="n">
-        <v>278.3296950665987</v>
+        <v>279.9571721944234</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>269.2991615337779</v>
       </c>
       <c r="W10" t="n">
         <v>276.2789678462144</v>
@@ -23247,7 +23247,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>220.6406155490276</v>
       </c>
     </row>
     <row r="11">
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>159.26432955466</v>
+        <v>159.2643295546599</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>153.5646522946854</v>
       </c>
       <c r="E11" t="n">
-        <v>406.2750994296863</v>
+        <v>259.6343255427848</v>
       </c>
       <c r="F11" t="n">
         <v>416.8201079258493</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>100.213864426283</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>7.516887478536489</v>
+        <v>254.3715257917211</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
@@ -23323,7 +23323,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>149.7823255395524</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -23336,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C12" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23348,13 +23348,13 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F12" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>105.1286023732147</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>62.394462647496</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23387,25 +23387,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>92.20631636151205</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>154.5577046417164</v>
+        <v>7.872416620277988</v>
       </c>
       <c r="U12" t="n">
-        <v>195.3252232014799</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>51.68061854646092</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="13">
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>157.8996982303191</v>
@@ -23436,7 +23436,7 @@
         <v>142.210852813166</v>
       </c>
       <c r="I13" t="n">
-        <v>95.22456288072436</v>
+        <v>95.22456288072435</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>54.57948945999398</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>172.9620919020575</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>100.8722672661009</v>
       </c>
       <c r="U13" t="n">
-        <v>33.0793281089167</v>
+        <v>33.07932810891668</v>
       </c>
       <c r="V13" t="n">
-        <v>24.29224929668865</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>273.8539651184238</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,16 +23497,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>159.168706466678</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>163.3421750150877</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>169.9654696126647</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
         <v>403.1614883740475</v>
@@ -23551,16 +23551,16 @@
         <v>213.5078515276671</v>
       </c>
       <c r="U14" t="n">
-        <v>254.3715257917211</v>
+        <v>36.94196036546805</v>
       </c>
       <c r="V14" t="n">
-        <v>128.9096136906312</v>
+        <v>99.48454080369942</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>133.0680595429984</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>149.7823255395523</v>
       </c>
       <c r="Y14" t="n">
         <v>396.9273063213908</v>
@@ -23573,25 +23573,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>89.87783430756275</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>62.394462647496</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23624,25 +23624,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>92.20631636151204</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>195.3252232014799</v>
       </c>
       <c r="V15" t="n">
-        <v>211.5744117368965</v>
+        <v>177.6463753240002</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X15" t="n">
         <v>174.5627220424961</v>
       </c>
       <c r="Y15" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>119.2096601849584</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>164.9142286143894</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.210852813166</v>
       </c>
       <c r="I16" t="n">
-        <v>84.67700635926266</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>234.3176196495956</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>279.9339664221013</v>
@@ -23721,7 +23721,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -23743,16 +23743,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>169.9654696126647</v>
       </c>
       <c r="G17" t="n">
-        <v>403.1614883740475</v>
+        <v>156.3068500608629</v>
       </c>
       <c r="H17" t="n">
-        <v>292.6473509928666</v>
+        <v>45.79271267968198</v>
       </c>
       <c r="I17" t="n">
-        <v>28.44932428539456</v>
+        <v>28.44932428539455</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>100.2138644262831</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>213.5078515276671</v>
       </c>
       <c r="U17" t="n">
-        <v>7.51688747853652</v>
+        <v>137.1558247917512</v>
       </c>
       <c r="V17" t="n">
-        <v>128.9096136906312</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>133.0680595429985</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>149.7823255395524</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
         <v>396.9273063213908</v>
@@ -23810,25 +23810,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E18" t="n">
-        <v>51.20317664177804</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>105.1286023732147</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>62.394462647496</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23861,25 +23861,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>92.20631636151205</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>154.5577046417164</v>
       </c>
       <c r="U18" t="n">
         <v>195.3252232014799</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W18" t="n">
-        <v>211.1008365810345</v>
+        <v>1.834904331238249</v>
       </c>
       <c r="X18" t="n">
         <v>174.5627220424961</v>
       </c>
       <c r="Y18" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23895,13 +23895,13 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>135.1612580889633</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>2.979340812029307</v>
       </c>
       <c r="G19" t="n">
         <v>164.9142286143894</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>95.22456288072435</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>54.57948945999398</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>234.3176196495956</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9339664221013</v>
+        <v>33.07932810891668</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>159.26432955466</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>283.2035896079001</v>
       </c>
       <c r="E20" t="n">
         <v>410.1968133282722</v>
@@ -23983,10 +23983,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>156.306850060863</v>
+        <v>156.3068500608628</v>
       </c>
       <c r="H20" t="n">
-        <v>292.6473509928666</v>
+        <v>45.79271267968193</v>
       </c>
       <c r="I20" t="n">
         <v>28.44932428539455</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>100.213864426283</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>213.5078515276671</v>
@@ -24031,13 +24031,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>162.4931324299302</v>
+        <v>133.0680595429984</v>
       </c>
       <c r="X20" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>150.0726680082062</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -24047,25 +24047,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E21" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>105.1286023732147</v>
       </c>
       <c r="H21" t="n">
-        <v>12.26273496255898</v>
+        <v>62.394462647496</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24098,22 +24098,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>92.20631636151204</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>195.3252232014799</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>211.1008365810345</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>74.73452360582094</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.9142286143894</v>
+        <v>62.67194767272899</v>
       </c>
       <c r="H22" t="n">
         <v>142.210852813166</v>
       </c>
       <c r="I22" t="n">
-        <v>95.22456288072436</v>
+        <v>95.22456288072435</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>54.57948945999398</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>172.9620919020575</v>
       </c>
       <c r="T22" t="n">
-        <v>234.3176196495956</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>33.07932810891673</v>
+        <v>279.9339664221013</v>
       </c>
       <c r="V22" t="n">
-        <v>24.29224929668868</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>29.42432953302978</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>191.4929499947179</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24208,22 +24208,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>75.58146825590507</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>349.996315767482</v>
       </c>
       <c r="G23" t="n">
         <v>402.3145745171349</v>
       </c>
       <c r="H23" t="n">
-        <v>283.9738944557603</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24259,19 +24259,19 @@
         <v>80.91481491188679</v>
       </c>
       <c r="T23" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.3037726831681</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>396.9273063213908</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>123.3097378635529</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5343322142292</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I25" t="n">
-        <v>83.80004204681616</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,22 +24414,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9132448002744</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>125.242182658378</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24445,10 +24445,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
         <v>410.1968133282722</v>
@@ -24496,13 +24496,13 @@
         <v>80.91481491188679</v>
       </c>
       <c r="T26" t="n">
-        <v>66.00035471614524</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>71.60440888813827</v>
       </c>
       <c r="W26" t="n">
         <v>379.9226978561831</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>21.16623198602898</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>37.49796586733681</v>
       </c>
       <c r="S28" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>3.302389845322153</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24685,13 +24685,13 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>126.418576876345</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>358.5629560184066</v>
       </c>
     </row>
     <row r="30">
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>101.4517203174415</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>37.49796586733681</v>
       </c>
       <c r="S31" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>232.6944259398202</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>279.9132448002744</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>85.77900494700543</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -24919,10 +24919,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
         <v>410.1968133282722</v>
@@ -24931,10 +24931,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>389.8612363184073</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24970,19 +24970,19 @@
         <v>80.91481491188679</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>21.63222442422449</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>158.0247573914752</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25128,13 +25128,13 @@
         <v>166.3415337283568</v>
       </c>
       <c r="T34" t="n">
-        <v>232.6944259398202</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9132448002744</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>264.4365349479557</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>373.3586717368533</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25162,13 +25162,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>77.47675216517041</v>
       </c>
       <c r="H35" t="n">
         <v>283.9738944557603</v>
@@ -25213,13 +25213,13 @@
         <v>254.3037726831681</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
         <v>396.9273063213908</v>
@@ -25320,13 +25320,13 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>103.449150992587</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5343322142292</v>
+        <v>71.18381035911517</v>
       </c>
       <c r="H37" t="n">
         <v>138.8332284553781</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>37.49796586733681</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>57.58395056071231</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
@@ -25402,10 +25402,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H38" t="n">
         <v>283.9738944557603</v>
@@ -25447,7 +25447,7 @@
         <v>209.8004861190321</v>
       </c>
       <c r="U38" t="n">
-        <v>254.3037726831681</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -25456,10 +25456,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>317.0068757254684</v>
       </c>
     </row>
     <row r="39">
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I40" t="n">
-        <v>22.67682317801493</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>37.49796586733681</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T40" t="n">
-        <v>232.6944259398202</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>135.1868626918859</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25633,7 +25633,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>410.1968133282722</v>
@@ -25642,10 +25642,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>186.4936817803315</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.3037726831681</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>40.42994244728845</v>
       </c>
     </row>
     <row r="42">
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>83.80004204681616</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>37.49796586733681</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>92.92126505627606</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>246.1559722934936</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
@@ -25867,10 +25867,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>80.91481491188679</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>21.61015782864814</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>123.2400412684401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>24.61029948999658</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>164.5343322142292</v>
       </c>
       <c r="H46" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>83.80004204681616</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>37.49796586733681</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>232.6944259398202</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>40.55427383772439</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>317536.028661789</v>
+        <v>317536.0286617891</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>317536.028661789</v>
+        <v>317536.0286617893</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>317536.028661789</v>
+        <v>317536.0286617891</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>517124.2825990386</v>
+        <v>517124.2825990384</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>517124.2825990382</v>
+        <v>517124.2825990386</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>517124.2825990383</v>
+        <v>517124.2825990384</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>517124.2825990384</v>
+        <v>517124.2825990385</v>
       </c>
     </row>
     <row r="16">
@@ -26316,10 +26316,10 @@
         <v>53337.99216142565</v>
       </c>
       <c r="C2" t="n">
-        <v>53337.99216142562</v>
+        <v>53337.99216142564</v>
       </c>
       <c r="D2" t="n">
-        <v>53935.56207558664</v>
+        <v>53935.56207558665</v>
       </c>
       <c r="E2" t="n">
         <v>131057.4290279004</v>
@@ -26334,28 +26334,28 @@
         <v>131057.4290279004</v>
       </c>
       <c r="I2" t="n">
-        <v>211565.4642249998</v>
+        <v>211565.4642249999</v>
       </c>
       <c r="J2" t="n">
-        <v>211565.4642249998</v>
+        <v>211565.4642249997</v>
       </c>
       <c r="K2" t="n">
         <v>211565.4642249998</v>
       </c>
       <c r="L2" t="n">
-        <v>211565.4642249999</v>
+        <v>211565.4642249998</v>
       </c>
       <c r="M2" t="n">
-        <v>211565.4642249997</v>
+        <v>211565.4642249998</v>
       </c>
       <c r="N2" t="n">
         <v>211565.4642249998</v>
       </c>
       <c r="O2" t="n">
-        <v>211565.4642249999</v>
+        <v>211565.4642249998</v>
       </c>
       <c r="P2" t="n">
-        <v>211565.4642249999</v>
+        <v>211565.4642249997</v>
       </c>
     </row>
     <row r="3">
@@ -26371,7 +26371,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2779.984380914592</v>
+        <v>2779.984380914617</v>
       </c>
       <c r="E3" t="n">
         <v>262696.8093679499</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>227515.0879849963</v>
+        <v>227515.0879849962</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>467.6428403250604</v>
+        <v>467.6428403250461</v>
       </c>
       <c r="M3" t="n">
-        <v>61056.70255713154</v>
+        <v>61056.7025571316</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,19 +26429,19 @@
         <v>11949.4213036571</v>
       </c>
       <c r="F4" t="n">
-        <v>11949.4213036571</v>
+        <v>11949.42130365711</v>
       </c>
       <c r="G4" t="n">
         <v>11949.4213036571</v>
       </c>
       <c r="H4" t="n">
-        <v>11949.4213036571</v>
+        <v>11949.42130365711</v>
       </c>
       <c r="I4" t="n">
-        <v>23910.38117996646</v>
+        <v>23910.38117996645</v>
       </c>
       <c r="J4" t="n">
-        <v>23910.38117996645</v>
+        <v>23910.38117996644</v>
       </c>
       <c r="K4" t="n">
         <v>23910.38117996645</v>
@@ -26450,13 +26450,13 @@
         <v>23910.38117996645</v>
       </c>
       <c r="M4" t="n">
-        <v>23910.38117996643</v>
+        <v>23910.38117996645</v>
       </c>
       <c r="N4" t="n">
-        <v>23910.38117996643</v>
+        <v>23910.38117996644</v>
       </c>
       <c r="O4" t="n">
-        <v>23910.38117996644</v>
+        <v>23910.38117996645</v>
       </c>
       <c r="P4" t="n">
         <v>23910.38117996645</v>
@@ -26484,7 +26484,7 @@
         <v>23031.79054479808</v>
       </c>
       <c r="G5" t="n">
-        <v>23031.79054479807</v>
+        <v>23031.79054479808</v>
       </c>
       <c r="H5" t="n">
         <v>23031.79054479808</v>
@@ -26493,7 +26493,7 @@
         <v>43385.32273194157</v>
       </c>
       <c r="J5" t="n">
-        <v>43385.32273194157</v>
+        <v>43385.32273194156</v>
       </c>
       <c r="K5" t="n">
         <v>43385.32273194157</v>
@@ -26502,10 +26502,10 @@
         <v>43385.32273194157</v>
       </c>
       <c r="M5" t="n">
-        <v>43385.32273194156</v>
+        <v>43385.32273194157</v>
       </c>
       <c r="N5" t="n">
-        <v>43385.32273194156</v>
+        <v>43385.32273194157</v>
       </c>
       <c r="O5" t="n">
         <v>43385.32273194157</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-118286.5430352417</v>
+        <v>-119661.3765267023</v>
       </c>
       <c r="C6" t="n">
-        <v>6527.929912082815</v>
+        <v>5153.096420622191</v>
       </c>
       <c r="D6" t="n">
-        <v>4386.655062330436</v>
+        <v>3014.667141889598</v>
       </c>
       <c r="E6" t="n">
-        <v>-166620.5921885047</v>
+        <v>-167625.3331234582</v>
       </c>
       <c r="F6" t="n">
-        <v>96076.2171794452</v>
+        <v>95071.47624449161</v>
       </c>
       <c r="G6" t="n">
-        <v>96076.21717944519</v>
+        <v>95071.47624449158</v>
       </c>
       <c r="H6" t="n">
-        <v>96076.21717944522</v>
+        <v>95071.47624449164</v>
       </c>
       <c r="I6" t="n">
-        <v>-83245.3276719045</v>
+        <v>-83866.69701068128</v>
       </c>
       <c r="J6" t="n">
-        <v>144269.7603130918</v>
+        <v>143648.3909743148</v>
       </c>
       <c r="K6" t="n">
-        <v>144269.7603130918</v>
+        <v>143648.3909743148</v>
       </c>
       <c r="L6" t="n">
-        <v>143802.1174727668</v>
+        <v>143180.7481339898</v>
       </c>
       <c r="M6" t="n">
-        <v>83213.0577559602</v>
+        <v>82591.68841718324</v>
       </c>
       <c r="N6" t="n">
-        <v>144269.7603130918</v>
+        <v>143648.3909743148</v>
       </c>
       <c r="O6" t="n">
-        <v>144269.7603130919</v>
+        <v>143648.3909743149</v>
       </c>
       <c r="P6" t="n">
-        <v>144269.7603130919</v>
+        <v>143648.3909743147</v>
       </c>
     </row>
   </sheetData>
@@ -26752,7 +26752,7 @@
         <v>368.0288318970851</v>
       </c>
       <c r="G3" t="n">
-        <v>368.028831897085</v>
+        <v>368.0288318970851</v>
       </c>
       <c r="H3" t="n">
         <v>368.0288318970851</v>
@@ -26801,34 +26801,34 @@
         <v>246.8546383131846</v>
       </c>
       <c r="F4" t="n">
-        <v>246.8546383131846</v>
+        <v>246.8546383131847</v>
       </c>
       <c r="G4" t="n">
         <v>246.8546383131846</v>
       </c>
       <c r="H4" t="n">
-        <v>246.8546383131846</v>
+        <v>246.8546383131847</v>
       </c>
       <c r="I4" t="n">
-        <v>506.080461825859</v>
+        <v>506.0804618258589</v>
       </c>
       <c r="J4" t="n">
-        <v>506.0804618258589</v>
+        <v>506.0804618258588</v>
       </c>
       <c r="K4" t="n">
         <v>506.0804618258589</v>
       </c>
       <c r="L4" t="n">
+        <v>506.0804618258589</v>
+      </c>
+      <c r="M4" t="n">
+        <v>506.0804618258589</v>
+      </c>
+      <c r="N4" t="n">
+        <v>506.0804618258589</v>
+      </c>
+      <c r="O4" t="n">
         <v>506.080461825859</v>
-      </c>
-      <c r="M4" t="n">
-        <v>506.0804618258588</v>
-      </c>
-      <c r="N4" t="n">
-        <v>506.0804618258588</v>
-      </c>
-      <c r="O4" t="n">
-        <v>506.0804618258589</v>
       </c>
       <c r="P4" t="n">
         <v>506.080461825859</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.575886463669548</v>
+        <v>2.575886463669576</v>
       </c>
       <c r="E3" t="n">
-        <v>235.9253519417082</v>
+        <v>235.9253519417083</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>1.847726076095356</v>
       </c>
       <c r="E4" t="n">
-        <v>245.0069122370892</v>
+        <v>245.0069122370893</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>259.2258235126744</v>
+        <v>259.2258235126743</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1.847726076095398</v>
+        <v>1.847726076095341</v>
       </c>
       <c r="M4" t="n">
-        <v>245.006912237089</v>
+        <v>245.0069122370893</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>1.847726076095356</v>
       </c>
       <c r="M4" t="n">
-        <v>245.0069122370892</v>
+        <v>245.0069122370893</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31755,7 +31755,7 @@
         <v>1.479512892048582</v>
       </c>
       <c r="H11" t="n">
-        <v>15.15206140569254</v>
+        <v>15.15206140569255</v>
       </c>
       <c r="I11" t="n">
         <v>57.03892077070302</v>
@@ -31767,7 +31767,7 @@
         <v>188.199588041925</v>
       </c>
       <c r="L11" t="n">
-        <v>233.4782307119568</v>
+        <v>233.4782307119569</v>
       </c>
       <c r="M11" t="n">
         <v>259.7895181059258</v>
@@ -31776,25 +31776,25 @@
         <v>263.9931841104589</v>
       </c>
       <c r="O11" t="n">
-        <v>249.2812777901507</v>
+        <v>249.2812777901508</v>
       </c>
       <c r="P11" t="n">
-        <v>212.7558032677013</v>
+        <v>212.7558032677014</v>
       </c>
       <c r="Q11" t="n">
         <v>159.7707478212114</v>
       </c>
       <c r="R11" t="n">
-        <v>92.93745170514683</v>
+        <v>92.93745170514684</v>
       </c>
       <c r="S11" t="n">
         <v>33.7144000275571</v>
       </c>
       <c r="T11" t="n">
-        <v>6.476567684942672</v>
+        <v>6.476567684942673</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1183610313638865</v>
+        <v>0.1183610313638866</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7916091855899566</v>
+        <v>0.7916091855899567</v>
       </c>
       <c r="H12" t="n">
         <v>7.645278187145109</v>
@@ -31840,31 +31840,31 @@
         <v>27.25496538105772</v>
       </c>
       <c r="J12" t="n">
-        <v>74.78970818768973</v>
+        <v>74.78970818768974</v>
       </c>
       <c r="K12" t="n">
         <v>127.8275236222168</v>
       </c>
       <c r="L12" t="n">
-        <v>171.8798804062754</v>
+        <v>171.8798804062755</v>
       </c>
       <c r="M12" t="n">
-        <v>200.5757133839113</v>
+        <v>200.5757133839114</v>
       </c>
       <c r="N12" t="n">
-        <v>205.8843556855212</v>
+        <v>205.8843556855213</v>
       </c>
       <c r="O12" t="n">
-        <v>188.3439626785016</v>
+        <v>188.3439626785017</v>
       </c>
       <c r="P12" t="n">
-        <v>151.1626347465593</v>
+        <v>151.1626347465594</v>
       </c>
       <c r="Q12" t="n">
         <v>101.0482181465355</v>
       </c>
       <c r="R12" t="n">
-        <v>49.14920890882206</v>
+        <v>49.14920890882207</v>
       </c>
       <c r="S12" t="n">
         <v>14.70379342532221</v>
@@ -31873,7 +31873,7 @@
         <v>3.190740533145482</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05207955168354979</v>
+        <v>0.0520795516835498</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,46 +31910,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6636585493226124</v>
+        <v>0.6636585493226125</v>
       </c>
       <c r="H13" t="n">
-        <v>5.900527829431958</v>
+        <v>5.900527829431959</v>
       </c>
       <c r="I13" t="n">
         <v>19.95802255599275</v>
       </c>
       <c r="J13" t="n">
-        <v>46.92065943710869</v>
+        <v>46.9206594371087</v>
       </c>
       <c r="K13" t="n">
         <v>77.10505691220895</v>
       </c>
       <c r="L13" t="n">
-        <v>98.66792650565458</v>
+        <v>98.66792650565461</v>
       </c>
       <c r="M13" t="n">
         <v>104.0314942360891</v>
       </c>
       <c r="N13" t="n">
-        <v>101.5578578249776</v>
+        <v>101.5578578249777</v>
       </c>
       <c r="O13" t="n">
-        <v>93.80511931698165</v>
+        <v>93.80511931698166</v>
       </c>
       <c r="P13" t="n">
-        <v>80.26648491080029</v>
+        <v>80.2664849108003</v>
       </c>
       <c r="Q13" t="n">
-        <v>55.57235361645984</v>
+        <v>55.57235361645985</v>
       </c>
       <c r="R13" t="n">
-        <v>29.84050168136036</v>
+        <v>29.84050168136037</v>
       </c>
       <c r="S13" t="n">
         <v>11.56575853683134</v>
       </c>
       <c r="T13" t="n">
-        <v>2.835631983469343</v>
+        <v>2.835631983469344</v>
       </c>
       <c r="U13" t="n">
         <v>0.0361995572357789</v>
@@ -31992,7 +31992,7 @@
         <v>1.479512892048582</v>
       </c>
       <c r="H14" t="n">
-        <v>15.15206140569254</v>
+        <v>15.15206140569255</v>
       </c>
       <c r="I14" t="n">
         <v>57.03892077070302</v>
@@ -32004,7 +32004,7 @@
         <v>188.199588041925</v>
       </c>
       <c r="L14" t="n">
-        <v>233.4782307119568</v>
+        <v>233.4782307119569</v>
       </c>
       <c r="M14" t="n">
         <v>259.7895181059258</v>
@@ -32013,25 +32013,25 @@
         <v>263.9931841104589</v>
       </c>
       <c r="O14" t="n">
-        <v>249.2812777901507</v>
+        <v>249.2812777901508</v>
       </c>
       <c r="P14" t="n">
-        <v>212.7558032677013</v>
+        <v>212.7558032677014</v>
       </c>
       <c r="Q14" t="n">
         <v>159.7707478212114</v>
       </c>
       <c r="R14" t="n">
-        <v>92.93745170514683</v>
+        <v>92.93745170514684</v>
       </c>
       <c r="S14" t="n">
         <v>33.7144000275571</v>
       </c>
       <c r="T14" t="n">
-        <v>6.476567684942672</v>
+        <v>6.476567684942673</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1183610313638865</v>
+        <v>0.1183610313638866</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7916091855899566</v>
+        <v>0.7916091855899567</v>
       </c>
       <c r="H15" t="n">
         <v>7.645278187145109</v>
@@ -32077,31 +32077,31 @@
         <v>27.25496538105772</v>
       </c>
       <c r="J15" t="n">
-        <v>74.78970818768973</v>
+        <v>74.78970818768974</v>
       </c>
       <c r="K15" t="n">
         <v>127.8275236222168</v>
       </c>
       <c r="L15" t="n">
-        <v>171.8798804062754</v>
+        <v>171.8798804062755</v>
       </c>
       <c r="M15" t="n">
-        <v>200.5757133839113</v>
+        <v>200.5757133839114</v>
       </c>
       <c r="N15" t="n">
-        <v>205.8843556855212</v>
+        <v>205.8843556855213</v>
       </c>
       <c r="O15" t="n">
-        <v>188.3439626785016</v>
+        <v>188.3439626785017</v>
       </c>
       <c r="P15" t="n">
-        <v>151.1626347465593</v>
+        <v>151.1626347465594</v>
       </c>
       <c r="Q15" t="n">
         <v>101.0482181465355</v>
       </c>
       <c r="R15" t="n">
-        <v>49.14920890882206</v>
+        <v>49.14920890882207</v>
       </c>
       <c r="S15" t="n">
         <v>14.70379342532221</v>
@@ -32110,7 +32110,7 @@
         <v>3.190740533145482</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05207955168354979</v>
+        <v>0.0520795516835498</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,46 +32147,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6636585493226124</v>
+        <v>0.6636585493226125</v>
       </c>
       <c r="H16" t="n">
-        <v>5.900527829431958</v>
+        <v>5.900527829431959</v>
       </c>
       <c r="I16" t="n">
         <v>19.95802255599275</v>
       </c>
       <c r="J16" t="n">
-        <v>46.92065943710869</v>
+        <v>46.9206594371087</v>
       </c>
       <c r="K16" t="n">
         <v>77.10505691220895</v>
       </c>
       <c r="L16" t="n">
-        <v>98.66792650565458</v>
+        <v>98.66792650565461</v>
       </c>
       <c r="M16" t="n">
         <v>104.0314942360891</v>
       </c>
       <c r="N16" t="n">
-        <v>101.5578578249776</v>
+        <v>101.5578578249777</v>
       </c>
       <c r="O16" t="n">
-        <v>93.80511931698165</v>
+        <v>93.80511931698166</v>
       </c>
       <c r="P16" t="n">
-        <v>80.26648491080029</v>
+        <v>80.2664849108003</v>
       </c>
       <c r="Q16" t="n">
-        <v>55.57235361645984</v>
+        <v>55.57235361645985</v>
       </c>
       <c r="R16" t="n">
-        <v>29.84050168136036</v>
+        <v>29.84050168136037</v>
       </c>
       <c r="S16" t="n">
         <v>11.56575853683134</v>
       </c>
       <c r="T16" t="n">
-        <v>2.835631983469343</v>
+        <v>2.835631983469344</v>
       </c>
       <c r="U16" t="n">
         <v>0.0361995572357789</v>
@@ -32229,46 +32229,46 @@
         <v>1.479512892048582</v>
       </c>
       <c r="H17" t="n">
-        <v>15.15206140569254</v>
+        <v>15.15206140569255</v>
       </c>
       <c r="I17" t="n">
-        <v>57.03892077070301</v>
+        <v>57.03892077070302</v>
       </c>
       <c r="J17" t="n">
-        <v>125.5718073215084</v>
+        <v>125.5718073215085</v>
       </c>
       <c r="K17" t="n">
         <v>188.199588041925</v>
       </c>
       <c r="L17" t="n">
-        <v>233.4782307119568</v>
+        <v>233.4782307119569</v>
       </c>
       <c r="M17" t="n">
-        <v>259.7895181059257</v>
+        <v>259.7895181059258</v>
       </c>
       <c r="N17" t="n">
-        <v>263.9931841104588</v>
+        <v>263.9931841104589</v>
       </c>
       <c r="O17" t="n">
-        <v>249.2812777901507</v>
+        <v>249.2812777901508</v>
       </c>
       <c r="P17" t="n">
-        <v>212.7558032677013</v>
+        <v>212.7558032677014</v>
       </c>
       <c r="Q17" t="n">
         <v>159.7707478212114</v>
       </c>
       <c r="R17" t="n">
-        <v>92.93745170514681</v>
+        <v>92.93745170514684</v>
       </c>
       <c r="S17" t="n">
-        <v>33.71440002755709</v>
+        <v>33.7144000275571</v>
       </c>
       <c r="T17" t="n">
-        <v>6.476567684942671</v>
+        <v>6.476567684942673</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1183610313638865</v>
+        <v>0.1183610313638866</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7916091855899565</v>
+        <v>0.7916091855899567</v>
       </c>
       <c r="H18" t="n">
-        <v>7.645278187145107</v>
+        <v>7.645278187145109</v>
       </c>
       <c r="I18" t="n">
         <v>27.25496538105772</v>
       </c>
       <c r="J18" t="n">
-        <v>74.78970818768971</v>
+        <v>74.78970818768974</v>
       </c>
       <c r="K18" t="n">
         <v>127.8275236222168</v>
       </c>
       <c r="L18" t="n">
-        <v>171.8798804062754</v>
+        <v>171.8798804062755</v>
       </c>
       <c r="M18" t="n">
-        <v>200.5757133839113</v>
+        <v>200.5757133839114</v>
       </c>
       <c r="N18" t="n">
-        <v>205.8843556855212</v>
+        <v>205.8843556855213</v>
       </c>
       <c r="O18" t="n">
-        <v>188.3439626785016</v>
+        <v>188.3439626785017</v>
       </c>
       <c r="P18" t="n">
-        <v>151.1626347465593</v>
+        <v>151.1626347465594</v>
       </c>
       <c r="Q18" t="n">
         <v>101.0482181465355</v>
       </c>
       <c r="R18" t="n">
-        <v>49.14920890882205</v>
+        <v>49.14920890882207</v>
       </c>
       <c r="S18" t="n">
         <v>14.70379342532221</v>
       </c>
       <c r="T18" t="n">
-        <v>3.190740533145481</v>
+        <v>3.190740533145482</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05207955168354979</v>
+        <v>0.0520795516835498</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6636585493226123</v>
+        <v>0.6636585493226125</v>
       </c>
       <c r="H19" t="n">
-        <v>5.900527829431957</v>
+        <v>5.900527829431959</v>
       </c>
       <c r="I19" t="n">
-        <v>19.95802255599274</v>
+        <v>19.95802255599275</v>
       </c>
       <c r="J19" t="n">
-        <v>46.92065943710868</v>
+        <v>46.9206594371087</v>
       </c>
       <c r="K19" t="n">
-        <v>77.10505691220894</v>
+        <v>77.10505691220895</v>
       </c>
       <c r="L19" t="n">
-        <v>98.66792650565456</v>
+        <v>98.66792650565461</v>
       </c>
       <c r="M19" t="n">
         <v>104.0314942360891</v>
       </c>
       <c r="N19" t="n">
-        <v>101.5578578249776</v>
+        <v>101.5578578249777</v>
       </c>
       <c r="O19" t="n">
-        <v>93.80511931698163</v>
+        <v>93.80511931698166</v>
       </c>
       <c r="P19" t="n">
-        <v>80.26648491080027</v>
+        <v>80.2664849108003</v>
       </c>
       <c r="Q19" t="n">
-        <v>55.57235361645984</v>
+        <v>55.57235361645985</v>
       </c>
       <c r="R19" t="n">
-        <v>29.84050168136036</v>
+        <v>29.84050168136037</v>
       </c>
       <c r="S19" t="n">
         <v>11.56575853683134</v>
       </c>
       <c r="T19" t="n">
-        <v>2.835631983469343</v>
+        <v>2.835631983469344</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03619955723577889</v>
+        <v>0.0361995572357789</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>1.479512892048582</v>
       </c>
       <c r="H20" t="n">
-        <v>15.15206140569254</v>
+        <v>15.15206140569255</v>
       </c>
       <c r="I20" t="n">
         <v>57.03892077070302</v>
@@ -32478,7 +32478,7 @@
         <v>188.199588041925</v>
       </c>
       <c r="L20" t="n">
-        <v>233.4782307119568</v>
+        <v>233.4782307119569</v>
       </c>
       <c r="M20" t="n">
         <v>259.7895181059258</v>
@@ -32487,25 +32487,25 @@
         <v>263.9931841104589</v>
       </c>
       <c r="O20" t="n">
-        <v>249.2812777901507</v>
+        <v>249.2812777901508</v>
       </c>
       <c r="P20" t="n">
-        <v>212.7558032677013</v>
+        <v>212.7558032677014</v>
       </c>
       <c r="Q20" t="n">
         <v>159.7707478212114</v>
       </c>
       <c r="R20" t="n">
-        <v>92.93745170514683</v>
+        <v>92.93745170514684</v>
       </c>
       <c r="S20" t="n">
         <v>33.7144000275571</v>
       </c>
       <c r="T20" t="n">
-        <v>6.476567684942672</v>
+        <v>6.476567684942673</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1183610313638865</v>
+        <v>0.1183610313638866</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7916091855899566</v>
+        <v>0.7916091855899567</v>
       </c>
       <c r="H21" t="n">
         <v>7.645278187145109</v>
@@ -32551,31 +32551,31 @@
         <v>27.25496538105772</v>
       </c>
       <c r="J21" t="n">
-        <v>74.78970818768973</v>
+        <v>74.78970818768974</v>
       </c>
       <c r="K21" t="n">
         <v>127.8275236222168</v>
       </c>
       <c r="L21" t="n">
-        <v>171.8798804062754</v>
+        <v>171.8798804062755</v>
       </c>
       <c r="M21" t="n">
-        <v>200.5757133839113</v>
+        <v>200.5757133839114</v>
       </c>
       <c r="N21" t="n">
-        <v>205.8843556855212</v>
+        <v>205.8843556855213</v>
       </c>
       <c r="O21" t="n">
-        <v>188.3439626785016</v>
+        <v>188.3439626785017</v>
       </c>
       <c r="P21" t="n">
-        <v>151.1626347465593</v>
+        <v>151.1626347465594</v>
       </c>
       <c r="Q21" t="n">
         <v>101.0482181465355</v>
       </c>
       <c r="R21" t="n">
-        <v>49.14920890882206</v>
+        <v>49.14920890882207</v>
       </c>
       <c r="S21" t="n">
         <v>14.70379342532221</v>
@@ -32584,7 +32584,7 @@
         <v>3.190740533145482</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05207955168354979</v>
+        <v>0.0520795516835498</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,46 +32621,46 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6636585493226124</v>
+        <v>0.6636585493226125</v>
       </c>
       <c r="H22" t="n">
-        <v>5.900527829431958</v>
+        <v>5.900527829431959</v>
       </c>
       <c r="I22" t="n">
         <v>19.95802255599275</v>
       </c>
       <c r="J22" t="n">
-        <v>46.92065943710869</v>
+        <v>46.9206594371087</v>
       </c>
       <c r="K22" t="n">
         <v>77.10505691220895</v>
       </c>
       <c r="L22" t="n">
-        <v>98.66792650565458</v>
+        <v>98.66792650565461</v>
       </c>
       <c r="M22" t="n">
         <v>104.0314942360891</v>
       </c>
       <c r="N22" t="n">
-        <v>101.5578578249776</v>
+        <v>101.5578578249777</v>
       </c>
       <c r="O22" t="n">
-        <v>93.80511931698165</v>
+        <v>93.80511931698166</v>
       </c>
       <c r="P22" t="n">
-        <v>80.26648491080029</v>
+        <v>80.2664849108003</v>
       </c>
       <c r="Q22" t="n">
-        <v>55.57235361645984</v>
+        <v>55.57235361645985</v>
       </c>
       <c r="R22" t="n">
-        <v>29.84050168136036</v>
+        <v>29.84050168136037</v>
       </c>
       <c r="S22" t="n">
         <v>11.56575853683134</v>
       </c>
       <c r="T22" t="n">
-        <v>2.835631983469343</v>
+        <v>2.835631983469344</v>
       </c>
       <c r="U22" t="n">
         <v>0.0361995572357789</v>
@@ -34374,7 +34374,7 @@
         <v>295.9302065681732</v>
       </c>
       <c r="L44" t="n">
-        <v>367.1275891866945</v>
+        <v>367.127589186695</v>
       </c>
       <c r="M44" t="n">
         <v>408.5001808835332</v>
@@ -35172,16 +35172,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1.847726076095356</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.7730704770612</v>
+      </c>
+      <c r="M8" t="n">
         <v>1.847726076095356</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.7730704770612</v>
       </c>
       <c r="N8" t="n">
         <v>1.847726076095356</v>
@@ -35193,7 +35193,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.847726076095356</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1.847726076095356</v>
       </c>
       <c r="K10" t="n">
         <v>1.847726076095356</v>
@@ -35339,19 +35339,19 @@
         <v>1.847726076095356</v>
       </c>
       <c r="M10" t="n">
-        <v>1.847726076095356</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>1.7730704770612</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,16 +35409,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>52.24821598820051</v>
+        <v>52.24821598820053</v>
       </c>
       <c r="K11" t="n">
-        <v>99.06319836870786</v>
+        <v>99.06319836870789</v>
       </c>
       <c r="L11" t="n">
         <v>137.992832649112</v>
       </c>
       <c r="M11" t="n">
-        <v>166.4992936488803</v>
+        <v>166.4992936488804</v>
       </c>
       <c r="N11" t="n">
         <v>171.0808933538395</v>
@@ -35430,10 +35430,10 @@
         <v>119.1064399868172</v>
       </c>
       <c r="Q11" t="n">
-        <v>69.73694342205937</v>
+        <v>69.7369434220594</v>
       </c>
       <c r="R11" t="n">
-        <v>5.625308890423312</v>
+        <v>5.625308890423327</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>6.713859915095497</v>
       </c>
       <c r="J12" t="n">
-        <v>23.42046938768971</v>
+        <v>215.4101961230652</v>
       </c>
       <c r="K12" t="n">
         <v>72.00174083760143</v>
@@ -35500,19 +35500,19 @@
         <v>143.0114296454939</v>
       </c>
       <c r="N12" t="n">
-        <v>152.6909622917712</v>
+        <v>152.6909622917713</v>
       </c>
       <c r="O12" t="n">
         <v>130.5924836785017</v>
       </c>
       <c r="P12" t="n">
-        <v>96.9029997437556</v>
+        <v>96.90299974375563</v>
       </c>
       <c r="Q12" t="n">
-        <v>164.0518770170529</v>
+        <v>44.35559964169681</v>
       </c>
       <c r="R12" t="n">
-        <v>79.00730927511489</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>61.14545681610922</v>
       </c>
       <c r="K13" t="n">
-        <v>24.85468735314213</v>
+        <v>233.2185192579039</v>
       </c>
       <c r="L13" t="n">
-        <v>44.03963261175307</v>
+        <v>246.8546383131846</v>
       </c>
       <c r="M13" t="n">
-        <v>246.8546383131846</v>
+        <v>47.76655173730909</v>
       </c>
       <c r="N13" t="n">
-        <v>49.8452123165582</v>
+        <v>49.84521231655822</v>
       </c>
       <c r="O13" t="n">
-        <v>246.8546383131846</v>
+        <v>37.73022124398533</v>
       </c>
       <c r="P13" t="n">
-        <v>243.2335368546799</v>
+        <v>179.1217460774524</v>
       </c>
       <c r="Q13" t="n">
         <v>121.7622827099051</v>
@@ -35646,16 +35646,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>52.24821598820051</v>
+        <v>52.24821598820053</v>
       </c>
       <c r="K14" t="n">
-        <v>99.06319836870786</v>
+        <v>99.06319836870789</v>
       </c>
       <c r="L14" t="n">
         <v>137.992832649112</v>
       </c>
       <c r="M14" t="n">
-        <v>166.4992936488803</v>
+        <v>166.4992936488804</v>
       </c>
       <c r="N14" t="n">
         <v>171.0808933538395</v>
@@ -35667,10 +35667,10 @@
         <v>119.1064399868172</v>
       </c>
       <c r="Q14" t="n">
-        <v>69.73694342205937</v>
+        <v>69.7369434220594</v>
       </c>
       <c r="R14" t="n">
-        <v>5.625308890423312</v>
+        <v>5.625308890423327</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>6.713859915095494</v>
+        <v>6.713859915095497</v>
       </c>
       <c r="J15" t="n">
-        <v>136.4028868479501</v>
+        <v>136.4028868479505</v>
       </c>
       <c r="K15" t="n">
         <v>72.00174083760143</v>
@@ -35737,16 +35737,16 @@
         <v>143.0114296454939</v>
       </c>
       <c r="N15" t="n">
-        <v>152.6909622917712</v>
+        <v>152.6909622917713</v>
       </c>
       <c r="O15" t="n">
         <v>130.5924836785017</v>
       </c>
       <c r="P15" t="n">
-        <v>96.9029997437556</v>
+        <v>96.90299974375563</v>
       </c>
       <c r="Q15" t="n">
-        <v>44.3555996416968</v>
+        <v>44.35559964169681</v>
       </c>
       <c r="R15" t="n">
         <v>79.00730927511489</v>
@@ -35807,25 +35807,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>24.85468735314213</v>
+        <v>233.2185192579039</v>
       </c>
       <c r="L16" t="n">
-        <v>44.03963261175307</v>
+        <v>246.8546383131847</v>
       </c>
       <c r="M16" t="n">
-        <v>246.8546383131846</v>
+        <v>47.76655173730909</v>
       </c>
       <c r="N16" t="n">
-        <v>246.8546383131846</v>
+        <v>49.84521231655822</v>
       </c>
       <c r="O16" t="n">
-        <v>46.22411085805356</v>
+        <v>152.9050685342675</v>
       </c>
       <c r="P16" t="n">
-        <v>246.8546383131846</v>
+        <v>246.8546383131847</v>
       </c>
       <c r="Q16" t="n">
-        <v>121.7622827099051</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>52.2482159882005</v>
+        <v>52.24821598820053</v>
       </c>
       <c r="K17" t="n">
-        <v>99.06319836870783</v>
+        <v>99.06319836870789</v>
       </c>
       <c r="L17" t="n">
         <v>137.992832649112</v>
       </c>
       <c r="M17" t="n">
-        <v>166.4992936488803</v>
+        <v>166.4992936488804</v>
       </c>
       <c r="N17" t="n">
         <v>171.0808933538395</v>
@@ -35901,13 +35901,13 @@
         <v>156.0915021643676</v>
       </c>
       <c r="P17" t="n">
-        <v>119.1064399868171</v>
+        <v>119.1064399868172</v>
       </c>
       <c r="Q17" t="n">
-        <v>69.73694342205937</v>
+        <v>69.7369434220594</v>
       </c>
       <c r="R17" t="n">
-        <v>5.625308890423298</v>
+        <v>5.625308890423327</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>6.71385991509549</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>23.4204693876897</v>
+        <v>23.42046938768973</v>
       </c>
       <c r="K18" t="n">
-        <v>72.0017408376014</v>
+        <v>72.00174083760143</v>
       </c>
       <c r="L18" t="n">
         <v>115.7653565954264</v>
@@ -35974,16 +35974,16 @@
         <v>143.0114296454939</v>
       </c>
       <c r="N18" t="n">
-        <v>152.6909622917712</v>
+        <v>152.6909622917713</v>
       </c>
       <c r="O18" t="n">
-        <v>130.5924836785016</v>
+        <v>130.5924836785017</v>
       </c>
       <c r="P18" t="n">
-        <v>96.90299974375557</v>
+        <v>96.90299974375563</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.3453263770725</v>
+        <v>243.0591862921677</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,10 +36044,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>24.85468735314211</v>
+        <v>24.85468735314213</v>
       </c>
       <c r="L19" t="n">
-        <v>174.2958049357264</v>
+        <v>187.5393829088163</v>
       </c>
       <c r="M19" t="n">
         <v>246.8546383131846</v>
@@ -36056,10 +36056,10 @@
         <v>246.8546383131846</v>
       </c>
       <c r="O19" t="n">
-        <v>37.73022124398531</v>
+        <v>246.8546383131846</v>
       </c>
       <c r="P19" t="n">
-        <v>246.8546383131846</v>
+        <v>24.48664327089552</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>52.24821598820051</v>
+        <v>52.24821598820053</v>
       </c>
       <c r="K20" t="n">
-        <v>99.06319836870786</v>
+        <v>99.06319836870789</v>
       </c>
       <c r="L20" t="n">
         <v>137.992832649112</v>
       </c>
       <c r="M20" t="n">
-        <v>166.4992936488803</v>
+        <v>166.4992936488804</v>
       </c>
       <c r="N20" t="n">
         <v>171.0808933538395</v>
@@ -36141,10 +36141,10 @@
         <v>119.1064399868172</v>
       </c>
       <c r="Q20" t="n">
-        <v>69.73694342205937</v>
+        <v>69.7369434220594</v>
       </c>
       <c r="R20" t="n">
-        <v>5.625308890423312</v>
+        <v>5.625308890423327</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>6.713859915095494</v>
+        <v>6.713859915095497</v>
       </c>
       <c r="J21" t="n">
-        <v>136.4028868479501</v>
+        <v>215.4101961230654</v>
       </c>
       <c r="K21" t="n">
         <v>72.00174083760143</v>
@@ -36211,19 +36211,19 @@
         <v>143.0114296454939</v>
       </c>
       <c r="N21" t="n">
-        <v>152.6909622917712</v>
+        <v>152.6909622917713</v>
       </c>
       <c r="O21" t="n">
         <v>130.5924836785017</v>
       </c>
       <c r="P21" t="n">
-        <v>96.9029997437556</v>
+        <v>96.90299974375563</v>
       </c>
       <c r="Q21" t="n">
-        <v>44.3555996416968</v>
+        <v>44.35559964169681</v>
       </c>
       <c r="R21" t="n">
-        <v>79.00730927511489</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36284,22 +36284,22 @@
         <v>24.85468735314213</v>
       </c>
       <c r="L22" t="n">
-        <v>246.8546383131846</v>
+        <v>187.5393829088163</v>
       </c>
       <c r="M22" t="n">
-        <v>65.77710019891107</v>
+        <v>246.8546383131847</v>
       </c>
       <c r="N22" t="n">
-        <v>246.8546383131846</v>
+        <v>246.8546383131847</v>
       </c>
       <c r="O22" t="n">
-        <v>246.8546383131846</v>
+        <v>246.8546383131847</v>
       </c>
       <c r="P22" t="n">
-        <v>24.48664327089551</v>
+        <v>24.48664327089552</v>
       </c>
       <c r="Q22" t="n">
-        <v>121.7622827099051</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36445,19 +36445,19 @@
         <v>214.1541257794518</v>
       </c>
       <c r="M24" t="n">
-        <v>506.080461825859</v>
+        <v>257.8264825848162</v>
       </c>
       <c r="N24" t="n">
-        <v>506.080461825859</v>
+        <v>270.5448280395447</v>
       </c>
       <c r="O24" t="n">
         <v>238.4057462161408</v>
       </c>
       <c r="P24" t="n">
-        <v>183.4326479153362</v>
+        <v>506.0804618258589</v>
       </c>
       <c r="Q24" t="n">
-        <v>103.7161041457613</v>
+        <v>264.8579032625955</v>
       </c>
       <c r="R24" t="n">
         <v>18.28336828375327</v>
@@ -36524,10 +36524,10 @@
         <v>417.6704839137738</v>
       </c>
       <c r="M25" t="n">
-        <v>107.3170392642374</v>
+        <v>215.6404327273624</v>
       </c>
       <c r="N25" t="n">
-        <v>216.3031158151056</v>
+        <v>107.9797223519805</v>
       </c>
       <c r="O25" t="n">
         <v>409.6841833510115</v>
@@ -36673,7 +36673,7 @@
         <v>2.549893009077103</v>
       </c>
       <c r="J27" t="n">
-        <v>66.23215461126495</v>
+        <v>312.361855595743</v>
       </c>
       <c r="K27" t="n">
         <v>145.1737298295874</v>
@@ -36691,13 +36691,13 @@
         <v>238.4057462161408</v>
       </c>
       <c r="P27" t="n">
-        <v>284.6233616966333</v>
+        <v>183.4326479153362</v>
       </c>
       <c r="Q27" t="n">
-        <v>506.0804618258589</v>
+        <v>272.2831751509793</v>
       </c>
       <c r="R27" t="n">
-        <v>18.28336828375327</v>
+        <v>107.1416677554515</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>88.0041323074345</v>
+        <v>22.34618924547856</v>
       </c>
       <c r="K28" t="n">
-        <v>277.3555737492421</v>
+        <v>115.9487269939329</v>
       </c>
       <c r="L28" t="n">
         <v>417.6704839137738</v>
@@ -36770,7 +36770,7 @@
         <v>409.6841833510115</v>
       </c>
       <c r="P28" t="n">
-        <v>106.9014078401948</v>
+        <v>333.9661976574595</v>
       </c>
       <c r="Q28" t="n">
         <v>153.5734258178641</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>2.549893009077103</v>
+        <v>22.31535144311488</v>
       </c>
       <c r="J30" t="n">
         <v>312.361855595743</v>
@@ -36931,10 +36931,10 @@
         <v>183.4326479153362</v>
       </c>
       <c r="Q30" t="n">
-        <v>361.1414746226779</v>
+        <v>252.517716716942</v>
       </c>
       <c r="R30" t="n">
-        <v>18.28336828375327</v>
+        <v>107.1416677554515</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37001,10 +37001,10 @@
         <v>455.7678973594753</v>
       </c>
       <c r="N31" t="n">
-        <v>107.9797223519805</v>
+        <v>186.1095904660701</v>
       </c>
       <c r="O31" t="n">
-        <v>169.5567187188988</v>
+        <v>91.426850604809</v>
       </c>
       <c r="P31" t="n">
         <v>333.9661976574595</v>
@@ -37168,10 +37168,10 @@
         <v>183.4326479153362</v>
       </c>
       <c r="Q33" t="n">
-        <v>361.1414746226781</v>
+        <v>272.2831751509797</v>
       </c>
       <c r="R33" t="n">
-        <v>18.28336828375327</v>
+        <v>107.1416677554515</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37229,25 +37229,25 @@
         <v>88.0041323074345</v>
       </c>
       <c r="K34" t="n">
-        <v>277.3555737492421</v>
+        <v>92.92219217911857</v>
       </c>
       <c r="L34" t="n">
         <v>417.6704839137738</v>
       </c>
       <c r="M34" t="n">
-        <v>215.6404327273626</v>
+        <v>455.7678973594753</v>
       </c>
       <c r="N34" t="n">
-        <v>107.9797223519805</v>
+        <v>443.3679056323699</v>
       </c>
       <c r="O34" t="n">
         <v>409.6841833510115</v>
       </c>
       <c r="P34" t="n">
-        <v>333.9661976574595</v>
+        <v>70.43338606845131</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.5734258178641</v>
+        <v>26.0239710644933</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>2.549893009077103</v>
+        <v>22.31535144311488</v>
       </c>
       <c r="J36" t="n">
         <v>66.23215461126495</v>
       </c>
       <c r="K36" t="n">
-        <v>506.0804618258588</v>
+        <v>506.0804618258589</v>
       </c>
       <c r="L36" t="n">
-        <v>358.3201914771132</v>
+        <v>214.1541257794518</v>
       </c>
       <c r="M36" t="n">
         <v>257.8264825848162</v>
@@ -37405,7 +37405,7 @@
         <v>183.4326479153362</v>
       </c>
       <c r="Q36" t="n">
-        <v>102.1983779132224</v>
+        <v>226.5989851768469</v>
       </c>
       <c r="R36" t="n">
         <v>18.28336828375327</v>
@@ -37466,7 +37466,7 @@
         <v>88.0041323074345</v>
       </c>
       <c r="K37" t="n">
-        <v>68.9917418444803</v>
+        <v>277.3555737492421</v>
       </c>
       <c r="L37" t="n">
         <v>417.6704839137738</v>
@@ -37481,10 +37481,10 @@
         <v>91.426850604809</v>
       </c>
       <c r="P37" t="n">
-        <v>333.9661976574595</v>
+        <v>76.70788249115962</v>
       </c>
       <c r="Q37" t="n">
-        <v>104.6789425563257</v>
+        <v>153.5734258178641</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37621,13 +37621,13 @@
         <v>22.31535144311488</v>
       </c>
       <c r="J39" t="n">
-        <v>312.361855595743</v>
+        <v>66.23215461126495</v>
       </c>
       <c r="K39" t="n">
         <v>145.1737298295874</v>
       </c>
       <c r="L39" t="n">
-        <v>214.1541257794518</v>
+        <v>506.0804618258589</v>
       </c>
       <c r="M39" t="n">
         <v>257.8264825848162</v>
@@ -37636,16 +37636,16 @@
         <v>270.5448280395447</v>
       </c>
       <c r="O39" t="n">
-        <v>238.4057462161408</v>
+        <v>342.9284499579312</v>
       </c>
       <c r="P39" t="n">
         <v>183.4326479153362</v>
       </c>
       <c r="Q39" t="n">
-        <v>341.3760161886397</v>
+        <v>102.1983779132224</v>
       </c>
       <c r="R39" t="n">
-        <v>18.28336828375327</v>
+        <v>107.1416677554515</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37709,7 +37709,7 @@
         <v>417.6704839137738</v>
       </c>
       <c r="M40" t="n">
-        <v>107.3170392642374</v>
+        <v>455.7678973594753</v>
       </c>
       <c r="N40" t="n">
         <v>443.3679056323699</v>
@@ -37718,10 +37718,10 @@
         <v>409.6841833510115</v>
       </c>
       <c r="P40" t="n">
-        <v>333.9661976574595</v>
+        <v>94.36383640308964</v>
       </c>
       <c r="Q40" t="n">
-        <v>134.8724679053609</v>
+        <v>26.0239710644933</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>183.4326479153362</v>
       </c>
       <c r="Q42" t="n">
-        <v>341.3760161886401</v>
+        <v>341.3760161886403</v>
       </c>
       <c r="R42" t="n">
         <v>18.28336828375327</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>22.34618924547856</v>
+        <v>88.0041323074345</v>
       </c>
       <c r="K43" t="n">
-        <v>277.3555737492421</v>
+        <v>68.9917418444803</v>
       </c>
       <c r="L43" t="n">
-        <v>100.5198665046596</v>
+        <v>417.6704839137738</v>
       </c>
       <c r="M43" t="n">
         <v>455.7678973594753</v>
@@ -37952,13 +37952,13 @@
         <v>443.3679056323699</v>
       </c>
       <c r="O43" t="n">
-        <v>409.6841833510115</v>
+        <v>91.426850604809</v>
       </c>
       <c r="P43" t="n">
-        <v>268.8085649693979</v>
+        <v>333.9661976574595</v>
       </c>
       <c r="Q43" t="n">
-        <v>26.0239710644933</v>
+        <v>104.6789425563263</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38022,7 +38022,7 @@
         <v>206.7938168949561</v>
       </c>
       <c r="L44" t="n">
-        <v>271.6421911238497</v>
+        <v>271.6421911238502</v>
       </c>
       <c r="M44" t="n">
         <v>315.2099564264878</v>
@@ -38095,7 +38095,7 @@
         <v>22.31535144311488</v>
       </c>
       <c r="J45" t="n">
-        <v>66.23215461126495</v>
+        <v>312.361855595743</v>
       </c>
       <c r="K45" t="n">
         <v>145.1737298295874</v>
@@ -38107,7 +38107,7 @@
         <v>257.8264825848162</v>
       </c>
       <c r="N45" t="n">
-        <v>506.080461825859</v>
+        <v>270.5448280395447</v>
       </c>
       <c r="O45" t="n">
         <v>238.4057462161408</v>
@@ -38116,7 +38116,7 @@
         <v>183.4326479153362</v>
       </c>
       <c r="Q45" t="n">
-        <v>263.1117839151058</v>
+        <v>252.5177167169422</v>
       </c>
       <c r="R45" t="n">
         <v>107.1416677554515</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>22.34618924547856</v>
+        <v>88.0041323074345</v>
       </c>
       <c r="K46" t="n">
-        <v>243.4981817473044</v>
+        <v>277.3555737492421</v>
       </c>
       <c r="L46" t="n">
         <v>417.6704839137738</v>
       </c>
       <c r="M46" t="n">
-        <v>107.3170392642374</v>
+        <v>215.6404327273626</v>
       </c>
       <c r="N46" t="n">
-        <v>443.3679056323699</v>
+        <v>107.9797223519805</v>
       </c>
       <c r="O46" t="n">
         <v>409.6841833510115</v>
@@ -38195,7 +38195,7 @@
         <v>333.9661976574595</v>
       </c>
       <c r="Q46" t="n">
-        <v>26.0239710644933</v>
+        <v>153.5734258178641</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
